--- a/lpr/相同query工具/肾结石X版本-669条.xlsx
+++ b/lpr/相同query工具/肾结石X版本-669条.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/peiranliu/Desktop/shendutv/lpr/相同query工具/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C17BD91-49EE-744D-BDD9-348038F9F750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="19672" windowHeight="9855"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19680" windowHeight="9860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3995,18 +4001,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4016,152 +4016,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4186,194 +4042,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -4381,251 +4051,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4652,89 +4080,158 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -4745,7 +4242,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -4773,154 +4270,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5170,22 +4553,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B758"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B757"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A611" workbookViewId="0">
+      <selection activeCell="A624" sqref="A624:XFD624"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.4690265486726" customWidth="1"/>
-    <col min="2" max="2" width="47.7256637168142" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5196,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="40.5" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5204,7 +4587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="40.5" spans="1:2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -5212,7 +4595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="54" spans="1:2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -5220,7 +4603,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="40.5" spans="1:2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -5228,7 +4611,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="40.5" spans="1:2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -5236,7 +4619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="40.5" spans="1:2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5244,7 +4627,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="54" spans="1:2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -5252,7 +4635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="40.5" spans="1:2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -5260,7 +4643,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="40.5" spans="1:2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -5268,7 +4651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="40.5" spans="1:2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -5276,7 +4659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="40.5" spans="1:2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -5284,7 +4667,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="1:2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -5292,7 +4675,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="54" spans="1:2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -5300,7 +4683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="40.5" spans="1:2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -5308,7 +4691,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="40.5" spans="1:2">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -5316,7 +4699,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="40.5" spans="1:2">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5324,7 +4707,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="40.5" spans="1:2">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -5332,7 +4715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="40.5" spans="1:2">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -5340,7 +4723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="40.5" spans="1:2">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -5348,7 +4731,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="40.5" spans="1:2">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -5356,7 +4739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="27" spans="1:2">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -5364,7 +4747,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="40.5" spans="1:2">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -5372,7 +4755,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="40.5" spans="1:2">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -5380,7 +4763,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" ht="40.5" spans="1:2">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -5388,7 +4771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" ht="40.5" spans="1:2">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -5396,7 +4779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" ht="40.5" spans="1:2">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -5404,7 +4787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" ht="27" spans="1:2">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -5412,7 +4795,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" ht="27" spans="1:2">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -5420,7 +4803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" ht="27" spans="1:2">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -5428,7 +4811,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" ht="27" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -5436,7 +4819,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" ht="40.5" spans="1:2">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -5444,7 +4827,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" ht="40.5" spans="1:2">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -5452,7 +4835,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" ht="40.5" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -5460,7 +4843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" ht="40.5" spans="1:2">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -5468,7 +4851,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" ht="40.5" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -5476,7 +4859,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" ht="54" spans="1:2">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -5484,7 +4867,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" ht="40.5" spans="1:2">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -5492,7 +4875,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" ht="40.5" spans="1:2">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -5500,7 +4883,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" ht="40.5" spans="1:2">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -5508,7 +4891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" ht="40.5" spans="1:2">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -5516,7 +4899,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" ht="40.5" spans="1:2">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
@@ -5524,7 +4907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" ht="40.5" spans="1:2">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -5532,7 +4915,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" ht="40.5" spans="1:2">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -5540,7 +4923,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" ht="40.5" spans="1:2">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -5548,7 +4931,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" ht="40.5" spans="1:2">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>90</v>
       </c>
@@ -5556,7 +4939,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" ht="40.5" spans="1:2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -5564,7 +4947,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" ht="27" spans="1:2">
+    <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
         <v>94</v>
       </c>
@@ -5572,7 +4955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="49" ht="40.5" spans="1:2">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
@@ -5580,7 +4963,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" ht="40.5" spans="1:2">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
@@ -5588,7 +4971,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="51" ht="40.5" spans="1:2">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>100</v>
       </c>
@@ -5596,7 +4979,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="52" ht="40.5" spans="1:2">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>102</v>
       </c>
@@ -5604,7 +4987,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" ht="40.5" spans="1:2">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>104</v>
       </c>
@@ -5612,7 +4995,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="54" ht="40.5" spans="1:2">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>106</v>
       </c>
@@ -5620,7 +5003,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" ht="54" spans="1:2">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>108</v>
       </c>
@@ -5628,7 +5011,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" ht="54" spans="1:2">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
@@ -5636,7 +5019,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="57" ht="40.5" spans="1:2">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>112</v>
       </c>
@@ -5644,7 +5027,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="58" ht="40.5" spans="1:2">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>114</v>
       </c>
@@ -5652,7 +5035,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="59" ht="27" spans="1:2">
+    <row r="59" spans="1:2">
       <c r="A59" s="4" t="s">
         <v>116</v>
       </c>
@@ -5660,7 +5043,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="60" ht="40.5" spans="1:2">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>118</v>
       </c>
@@ -5668,7 +5051,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" ht="40.5" spans="1:2">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
@@ -5676,7 +5059,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="62" ht="40.5" spans="1:2">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -5684,7 +5067,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="63" ht="40.5" spans="1:2">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>124</v>
       </c>
@@ -5692,7 +5075,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" ht="40.5" spans="1:2">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>126</v>
       </c>
@@ -5700,7 +5083,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" ht="40.5" spans="1:2">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>128</v>
       </c>
@@ -5708,7 +5091,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" ht="27" spans="1:2">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>130</v>
       </c>
@@ -5716,7 +5099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="1:2">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>132</v>
       </c>
@@ -5724,7 +5107,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="68" ht="40.5" spans="1:2">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>134</v>
       </c>
@@ -5732,7 +5115,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" ht="40.5" spans="1:2">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>136</v>
       </c>
@@ -5740,7 +5123,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="70" ht="54" spans="1:2">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>138</v>
       </c>
@@ -5748,7 +5131,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" ht="40.5" spans="1:2">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>140</v>
       </c>
@@ -5756,7 +5139,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="72" ht="40.5" spans="1:2">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>142</v>
       </c>
@@ -5764,7 +5147,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="73" ht="40.5" spans="1:2">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>144</v>
       </c>
@@ -5772,7 +5155,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="74" ht="27" spans="1:2">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -5780,7 +5163,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="75" ht="40.5" spans="1:2">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>148</v>
       </c>
@@ -5788,7 +5171,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="76" ht="40.5" spans="1:2">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>150</v>
       </c>
@@ -5796,7 +5179,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="77" ht="27" spans="1:2">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>152</v>
       </c>
@@ -5804,7 +5187,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" ht="40.5" spans="1:2">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>154</v>
       </c>
@@ -5812,7 +5195,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="79" ht="40.5" spans="1:2">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>156</v>
       </c>
@@ -5820,7 +5203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="80" ht="40.5" spans="1:2">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>158</v>
       </c>
@@ -5828,7 +5211,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" ht="54" spans="1:2">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>160</v>
       </c>
@@ -5836,7 +5219,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" ht="40.5" spans="1:2">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>162</v>
       </c>
@@ -5844,7 +5227,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="83" ht="40.5" spans="1:2">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>164</v>
       </c>
@@ -5852,7 +5235,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="84" ht="40.5" spans="1:2">
+    <row r="84" spans="1:2">
       <c r="A84" s="4" t="s">
         <v>166</v>
       </c>
@@ -5860,7 +5243,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="85" ht="40.5" spans="1:2">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>168</v>
       </c>
@@ -5868,7 +5251,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="86" ht="40.5" spans="1:2">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>170</v>
       </c>
@@ -5876,7 +5259,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" ht="40.5" spans="1:2">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>172</v>
       </c>
@@ -5884,7 +5267,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" ht="40.5" spans="1:2">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>174</v>
       </c>
@@ -5892,7 +5275,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="89" ht="40.5" spans="1:2">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>176</v>
       </c>
@@ -5900,7 +5283,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="90" ht="54" spans="1:2">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>178</v>
       </c>
@@ -5908,7 +5291,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="91" ht="40.5" spans="1:2">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>180</v>
       </c>
@@ -5916,7 +5299,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="92" ht="27" spans="1:2">
+    <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
         <v>182</v>
       </c>
@@ -5924,7 +5307,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" ht="40.5" spans="1:2">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>184</v>
       </c>
@@ -5932,7 +5315,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="94" ht="27" spans="1:2">
+    <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
         <v>186</v>
       </c>
@@ -5940,7 +5323,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="95" ht="27" spans="1:2">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>188</v>
       </c>
@@ -5948,7 +5331,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96" ht="40.5" spans="1:2">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>190</v>
       </c>
@@ -5956,7 +5339,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" ht="40.5" spans="1:2">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>192</v>
       </c>
@@ -5964,7 +5347,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="98" ht="40.5" spans="1:2">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>194</v>
       </c>
@@ -5972,7 +5355,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="99" ht="40.5" spans="1:2">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>196</v>
       </c>
@@ -5980,7 +5363,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="100" ht="40.5" spans="1:2">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>198</v>
       </c>
@@ -5988,7 +5371,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="101" ht="40.5" spans="1:2">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>200</v>
       </c>
@@ -5996,7 +5379,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="102" ht="40.5" spans="1:2">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>202</v>
       </c>
@@ -6004,7 +5387,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="103" ht="40.5" spans="1:2">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>204</v>
       </c>
@@ -6012,7 +5395,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="104" ht="40.5" spans="1:2">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>206</v>
       </c>
@@ -6020,7 +5403,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="105" ht="40.5" spans="1:2">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -6028,7 +5411,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="106" ht="54" spans="1:2">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>210</v>
       </c>
@@ -6036,7 +5419,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="107" ht="40.5" spans="1:2">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>212</v>
       </c>
@@ -6044,7 +5427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="108" ht="40.5" spans="1:2">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>214</v>
       </c>
@@ -6052,7 +5435,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" ht="40.5" spans="1:2">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>216</v>
       </c>
@@ -6060,7 +5443,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="1:2">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>218</v>
       </c>
@@ -6068,7 +5451,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" ht="54" spans="1:2">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>220</v>
       </c>
@@ -6076,7 +5459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" ht="40.5" spans="1:2">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>222</v>
       </c>
@@ -6084,7 +5467,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="113" ht="40.5" spans="1:2">
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
         <v>224</v>
       </c>
@@ -6092,7 +5475,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="114" ht="40.5" spans="1:2">
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>226</v>
       </c>
@@ -6100,7 +5483,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="115" ht="40.5" spans="1:2">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>228</v>
       </c>
@@ -6108,7 +5491,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="116" ht="40.5" spans="1:2">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>230</v>
       </c>
@@ -6116,7 +5499,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="117" ht="40.5" spans="1:2">
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>232</v>
       </c>
@@ -6124,7 +5507,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="118" ht="40.5" spans="1:2">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>234</v>
       </c>
@@ -6132,7 +5515,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="119" ht="27" spans="1:2">
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>236</v>
       </c>
@@ -6140,7 +5523,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="120" ht="40.5" spans="1:2">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>238</v>
       </c>
@@ -6148,7 +5531,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="121" ht="40.5" spans="1:2">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>240</v>
       </c>
@@ -6156,7 +5539,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="122" ht="27" spans="1:2">
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>242</v>
       </c>
@@ -6164,7 +5547,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" ht="40.5" spans="1:2">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>244</v>
       </c>
@@ -6172,7 +5555,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="124" ht="40.5" spans="1:2">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>246</v>
       </c>
@@ -6180,7 +5563,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" ht="40.5" spans="1:2">
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>248</v>
       </c>
@@ -6188,7 +5571,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="126" ht="40.5" spans="1:2">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>250</v>
       </c>
@@ -6196,7 +5579,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="127" ht="40.5" spans="1:2">
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>252</v>
       </c>
@@ -6204,7 +5587,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" ht="40.5" spans="1:2">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>254</v>
       </c>
@@ -6212,7 +5595,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="129" ht="40.5" spans="1:2">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>256</v>
       </c>
@@ -6220,7 +5603,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" ht="40.5" spans="1:2">
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>258</v>
       </c>
@@ -6228,7 +5611,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="131" ht="40.5" spans="1:2">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>260</v>
       </c>
@@ -6236,7 +5619,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="132" ht="40.5" spans="1:2">
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>262</v>
       </c>
@@ -6244,7 +5627,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="133" ht="40.5" spans="1:2">
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>264</v>
       </c>
@@ -6252,7 +5635,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="134" ht="40.5" spans="1:2">
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
         <v>266</v>
       </c>
@@ -6260,7 +5643,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="135" ht="40.5" spans="1:2">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>268</v>
       </c>
@@ -6268,7 +5651,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="136" ht="40.5" spans="1:2">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>270</v>
       </c>
@@ -6276,7 +5659,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="137" ht="40.5" spans="1:2">
+    <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
         <v>272</v>
       </c>
@@ -6284,7 +5667,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="138" ht="40.5" spans="1:2">
+    <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
         <v>274</v>
       </c>
@@ -6292,7 +5675,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="139" ht="40.5" spans="1:2">
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>276</v>
       </c>
@@ -6300,7 +5683,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="140" ht="40.5" spans="1:2">
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>278</v>
       </c>
@@ -6308,7 +5691,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="141" ht="40.5" spans="1:2">
+    <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
         <v>280</v>
       </c>
@@ -6316,7 +5699,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="142" ht="40.5" spans="1:2">
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
         <v>282</v>
       </c>
@@ -6324,7 +5707,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="143" ht="27" spans="1:2">
+    <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
         <v>284</v>
       </c>
@@ -6332,7 +5715,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="144" ht="40.5" spans="1:2">
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>286</v>
       </c>
@@ -6340,7 +5723,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="145" ht="40.5" spans="1:2">
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>288</v>
       </c>
@@ -6348,7 +5731,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="146" ht="40.5" spans="1:2">
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
         <v>290</v>
       </c>
@@ -6356,7 +5739,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="147" ht="40.5" spans="1:2">
+    <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
         <v>292</v>
       </c>
@@ -6364,7 +5747,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="148" ht="40.5" spans="1:2">
+    <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
         <v>294</v>
       </c>
@@ -6372,7 +5755,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="149" ht="40.5" spans="1:2">
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
         <v>296</v>
       </c>
@@ -6380,7 +5763,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="150" ht="40.5" spans="1:2">
+    <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
         <v>298</v>
       </c>
@@ -6388,7 +5771,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="151" ht="40.5" spans="1:2">
+    <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
         <v>300</v>
       </c>
@@ -6396,7 +5779,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="152" ht="27" spans="1:2">
+    <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -6404,7 +5787,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="153" ht="27" spans="1:2">
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
         <v>304</v>
       </c>
@@ -6412,7 +5795,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="154" ht="27" spans="1:2">
+    <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
         <v>306</v>
       </c>
@@ -6420,7 +5803,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="155" ht="27" spans="1:2">
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
         <v>308</v>
       </c>
@@ -6428,7 +5811,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" ht="27" spans="1:2">
+    <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
         <v>310</v>
       </c>
@@ -6436,7 +5819,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="157" ht="27" spans="1:2">
+    <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
         <v>312</v>
       </c>
@@ -6444,7 +5827,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="158" ht="40.5" spans="1:2">
+    <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
         <v>314</v>
       </c>
@@ -6452,7 +5835,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="159" ht="27" spans="1:2">
+    <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
         <v>316</v>
       </c>
@@ -6460,7 +5843,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="160" ht="40.5" spans="1:2">
+    <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
         <v>318</v>
       </c>
@@ -6468,7 +5851,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="161" ht="40.5" spans="1:2">
+    <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
         <v>320</v>
       </c>
@@ -6476,7 +5859,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="162" ht="40.5" spans="1:2">
+    <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
         <v>322</v>
       </c>
@@ -6484,7 +5867,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="163" ht="40.5" spans="1:2">
+    <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
         <v>324</v>
       </c>
@@ -6492,7 +5875,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="164" ht="40.5" spans="1:2">
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
         <v>326</v>
       </c>
@@ -6500,7 +5883,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="165" ht="40.5" spans="1:2">
+    <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
         <v>328</v>
       </c>
@@ -6508,7 +5891,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="166" ht="27" spans="1:2">
+    <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
         <v>330</v>
       </c>
@@ -6516,7 +5899,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="167" ht="27" spans="1:2">
+    <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
         <v>332</v>
       </c>
@@ -6524,7 +5907,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="168" ht="40.5" spans="1:2">
+    <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
         <v>334</v>
       </c>
@@ -6532,7 +5915,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="169" ht="54" spans="1:2">
+    <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
         <v>336</v>
       </c>
@@ -6540,7 +5923,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="170" ht="40.5" spans="1:2">
+    <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
         <v>338</v>
       </c>
@@ -6548,7 +5931,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="171" ht="54" spans="1:2">
+    <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
         <v>340</v>
       </c>
@@ -6556,7 +5939,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="172" ht="40.5" spans="1:2">
+    <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
         <v>342</v>
       </c>
@@ -6564,7 +5947,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="173" ht="54" spans="1:2">
+    <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
         <v>344</v>
       </c>
@@ -6572,7 +5955,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="174" ht="40.5" spans="1:2">
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
         <v>346</v>
       </c>
@@ -6580,7 +5963,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="175" ht="40.5" spans="1:2">
+    <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
         <v>348</v>
       </c>
@@ -6588,7 +5971,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="176" ht="54" spans="1:2">
+    <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
         <v>350</v>
       </c>
@@ -6596,7 +5979,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="177" ht="40.5" spans="1:2">
+    <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
         <v>352</v>
       </c>
@@ -6604,7 +5987,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="178" ht="40.5" spans="1:2">
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>354</v>
       </c>
@@ -6612,7 +5995,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="179" ht="40.5" spans="1:2">
+    <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
         <v>356</v>
       </c>
@@ -6620,7 +6003,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="180" ht="40.5" spans="1:2">
+    <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
         <v>358</v>
       </c>
@@ -6628,7 +6011,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="181" ht="54" spans="1:2">
+    <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
         <v>360</v>
       </c>
@@ -6636,7 +6019,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="182" ht="54" spans="1:2">
+    <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
         <v>362</v>
       </c>
@@ -6644,7 +6027,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="183" ht="40.5" spans="1:2">
+    <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
         <v>364</v>
       </c>
@@ -6652,7 +6035,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="184" ht="27" spans="1:2">
+    <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
         <v>366</v>
       </c>
@@ -6660,7 +6043,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="185" ht="40.5" spans="1:2">
+    <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
         <v>368</v>
       </c>
@@ -6668,7 +6051,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="186" ht="40.5" spans="1:2">
+    <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
         <v>370</v>
       </c>
@@ -6676,7 +6059,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="187" ht="40.5" spans="1:2">
+    <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
         <v>372</v>
       </c>
@@ -6684,7 +6067,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="188" ht="54" spans="1:2">
+    <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
         <v>374</v>
       </c>
@@ -6692,7 +6075,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="189" ht="40.5" spans="1:2">
+    <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
         <v>376</v>
       </c>
@@ -6700,7 +6083,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="190" ht="27" spans="1:2">
+    <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
         <v>378</v>
       </c>
@@ -6708,7 +6091,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="191" ht="27" spans="1:2">
+    <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
         <v>380</v>
       </c>
@@ -6716,7 +6099,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="192" ht="40.5" spans="1:2">
+    <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
         <v>382</v>
       </c>
@@ -6724,7 +6107,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="193" ht="27" spans="1:2">
+    <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
         <v>384</v>
       </c>
@@ -6732,7 +6115,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="194" ht="40.5" spans="1:2">
+    <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
         <v>386</v>
       </c>
@@ -6740,7 +6123,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="195" ht="54" spans="1:2">
+    <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
         <v>388</v>
       </c>
@@ -6748,7 +6131,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="196" ht="40.5" spans="1:2">
+    <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
         <v>390</v>
       </c>
@@ -6756,7 +6139,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="197" ht="40.5" spans="1:2">
+    <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
         <v>392</v>
       </c>
@@ -6764,7 +6147,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="198" ht="40.5" spans="1:2">
+    <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
         <v>394</v>
       </c>
@@ -6772,7 +6155,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="199" ht="40.5" spans="1:2">
+    <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
         <v>396</v>
       </c>
@@ -6780,7 +6163,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="200" ht="40.5" spans="1:2">
+    <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
         <v>398</v>
       </c>
@@ -6788,7 +6171,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="201" ht="40.5" spans="1:2">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>400</v>
       </c>
@@ -6796,7 +6179,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="202" ht="27" spans="1:2">
+    <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
         <v>402</v>
       </c>
@@ -6804,7 +6187,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="203" ht="40.5" spans="1:2">
+    <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
         <v>404</v>
       </c>
@@ -6812,7 +6195,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="204" ht="40.5" spans="1:2">
+    <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
         <v>406</v>
       </c>
@@ -6820,7 +6203,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" ht="40.5" spans="1:2">
+    <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
         <v>408</v>
       </c>
@@ -6828,7 +6211,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="206" ht="40.5" spans="1:2">
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
         <v>410</v>
       </c>
@@ -6836,7 +6219,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="207" ht="40.5" spans="1:2">
+    <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
         <v>412</v>
       </c>
@@ -6844,7 +6227,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="208" ht="40.5" spans="1:2">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>414</v>
       </c>
@@ -6852,7 +6235,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="209" ht="40.5" spans="1:2">
+    <row r="209" spans="1:2">
       <c r="A209" s="1" t="s">
         <v>416</v>
       </c>
@@ -6860,7 +6243,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="210" ht="54" spans="1:2">
+    <row r="210" spans="1:2">
       <c r="A210" s="1" t="s">
         <v>418</v>
       </c>
@@ -6868,7 +6251,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="211" ht="40.5" spans="1:2">
+    <row r="211" spans="1:2">
       <c r="A211" s="1" t="s">
         <v>420</v>
       </c>
@@ -6876,7 +6259,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="212" ht="40.5" spans="1:2">
+    <row r="212" spans="1:2">
       <c r="A212" s="1" t="s">
         <v>422</v>
       </c>
@@ -6884,7 +6267,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="213" ht="40.5" spans="1:2">
+    <row r="213" spans="1:2">
       <c r="A213" s="1" t="s">
         <v>424</v>
       </c>
@@ -6892,7 +6275,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="214" ht="54" spans="1:2">
+    <row r="214" spans="1:2">
       <c r="A214" s="1" t="s">
         <v>426</v>
       </c>
@@ -6900,7 +6283,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" ht="40.5" spans="1:2">
+    <row r="215" spans="1:2">
       <c r="A215" s="1" t="s">
         <v>428</v>
       </c>
@@ -6908,7 +6291,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="216" ht="54" spans="1:2">
+    <row r="216" spans="1:2">
       <c r="A216" s="1" t="s">
         <v>430</v>
       </c>
@@ -6916,7 +6299,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="217" ht="40.5" spans="1:2">
+    <row r="217" spans="1:2">
       <c r="A217" s="1" t="s">
         <v>432</v>
       </c>
@@ -6924,7 +6307,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="218" ht="40.5" spans="1:2">
+    <row r="218" spans="1:2">
       <c r="A218" s="1" t="s">
         <v>434</v>
       </c>
@@ -6932,7 +6315,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="219" ht="40.5" spans="1:2">
+    <row r="219" spans="1:2">
       <c r="A219" s="1" t="s">
         <v>436</v>
       </c>
@@ -6940,7 +6323,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="220" ht="27" spans="1:2">
+    <row r="220" spans="1:2">
       <c r="A220" s="1" t="s">
         <v>438</v>
       </c>
@@ -6948,7 +6331,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="221" ht="40.5" spans="1:2">
+    <row r="221" spans="1:2">
       <c r="A221" s="1" t="s">
         <v>440</v>
       </c>
@@ -6956,7 +6339,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="222" ht="40.5" spans="1:2">
+    <row r="222" spans="1:2">
       <c r="A222" s="1" t="s">
         <v>442</v>
       </c>
@@ -6964,7 +6347,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="223" ht="40.5" spans="1:2">
+    <row r="223" spans="1:2">
       <c r="A223" s="1" t="s">
         <v>444</v>
       </c>
@@ -6972,7 +6355,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="224" ht="40.5" spans="1:2">
+    <row r="224" spans="1:2">
       <c r="A224" s="1" t="s">
         <v>446</v>
       </c>
@@ -6980,7 +6363,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="225" ht="27" spans="1:2">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>448</v>
       </c>
@@ -6988,7 +6371,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="226" ht="27" spans="1:2">
+    <row r="226" spans="1:2">
       <c r="A226" s="1" t="s">
         <v>450</v>
       </c>
@@ -6996,7 +6379,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="227" ht="40.5" spans="1:2">
+    <row r="227" spans="1:2">
       <c r="A227" s="1" t="s">
         <v>452</v>
       </c>
@@ -7004,7 +6387,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="228" ht="40.5" spans="1:2">
+    <row r="228" spans="1:2">
       <c r="A228" s="1" t="s">
         <v>454</v>
       </c>
@@ -7012,7 +6395,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="229" ht="40.5" spans="1:2">
+    <row r="229" spans="1:2">
       <c r="A229" s="1" t="s">
         <v>456</v>
       </c>
@@ -7020,7 +6403,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="230" ht="40.5" spans="1:2">
+    <row r="230" spans="1:2">
       <c r="A230" s="1" t="s">
         <v>458</v>
       </c>
@@ -7028,7 +6411,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="231" ht="67.5" spans="1:2">
+    <row r="231" spans="1:2">
       <c r="A231" s="1" t="s">
         <v>460</v>
       </c>
@@ -7036,7 +6419,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="232" ht="40.5" spans="1:2">
+    <row r="232" spans="1:2">
       <c r="A232" s="1" t="s">
         <v>462</v>
       </c>
@@ -7044,7 +6427,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="233" ht="40.5" spans="1:2">
+    <row r="233" spans="1:2">
       <c r="A233" s="1" t="s">
         <v>464</v>
       </c>
@@ -7052,7 +6435,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="234" ht="40.5" spans="1:2">
+    <row r="234" spans="1:2">
       <c r="A234" s="1" t="s">
         <v>466</v>
       </c>
@@ -7060,7 +6443,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="235" ht="40.5" spans="1:2">
+    <row r="235" spans="1:2">
       <c r="A235" s="1" t="s">
         <v>468</v>
       </c>
@@ -7068,7 +6451,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="236" ht="40.5" spans="1:2">
+    <row r="236" spans="1:2">
       <c r="A236" s="1" t="s">
         <v>470</v>
       </c>
@@ -7076,7 +6459,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="237" ht="40.5" spans="1:2">
+    <row r="237" spans="1:2">
       <c r="A237" s="1" t="s">
         <v>472</v>
       </c>
@@ -7084,7 +6467,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="238" ht="40.5" spans="1:2">
+    <row r="238" spans="1:2">
       <c r="A238" s="1" t="s">
         <v>474</v>
       </c>
@@ -7092,7 +6475,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="239" ht="40.5" spans="1:2">
+    <row r="239" spans="1:2">
       <c r="A239" s="1" t="s">
         <v>476</v>
       </c>
@@ -7100,7 +6483,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="240" ht="40.5" spans="1:2">
+    <row r="240" spans="1:2">
       <c r="A240" s="1" t="s">
         <v>478</v>
       </c>
@@ -7108,7 +6491,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="241" ht="40.5" spans="1:2">
+    <row r="241" spans="1:2">
       <c r="A241" s="1" t="s">
         <v>480</v>
       </c>
@@ -7116,7 +6499,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="242" ht="40.5" spans="1:2">
+    <row r="242" spans="1:2">
       <c r="A242" s="1" t="s">
         <v>482</v>
       </c>
@@ -7124,7 +6507,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="243" ht="27" spans="1:2">
+    <row r="243" spans="1:2">
       <c r="A243" s="1" t="s">
         <v>484</v>
       </c>
@@ -7132,7 +6515,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="244" ht="40.5" spans="1:2">
+    <row r="244" spans="1:2">
       <c r="A244" s="1" t="s">
         <v>486</v>
       </c>
@@ -7140,7 +6523,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="245" ht="40.5" spans="1:2">
+    <row r="245" spans="1:2">
       <c r="A245" s="1" t="s">
         <v>488</v>
       </c>
@@ -7148,7 +6531,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="246" ht="40.5" spans="1:2">
+    <row r="246" spans="1:2">
       <c r="A246" s="1" t="s">
         <v>490</v>
       </c>
@@ -7156,7 +6539,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="247" ht="27" spans="1:2">
+    <row r="247" spans="1:2">
       <c r="A247" s="1" t="s">
         <v>492</v>
       </c>
@@ -7164,7 +6547,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="248" ht="40.5" spans="1:2">
+    <row r="248" spans="1:2">
       <c r="A248" s="1" t="s">
         <v>494</v>
       </c>
@@ -7172,7 +6555,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="249" ht="40.5" spans="1:2">
+    <row r="249" spans="1:2">
       <c r="A249" s="1" t="s">
         <v>496</v>
       </c>
@@ -7180,7 +6563,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="250" ht="40.5" spans="1:2">
+    <row r="250" spans="1:2">
       <c r="A250" s="1" t="s">
         <v>498</v>
       </c>
@@ -7188,7 +6571,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="251" ht="27" spans="1:2">
+    <row r="251" spans="1:2">
       <c r="A251" s="1" t="s">
         <v>500</v>
       </c>
@@ -7196,7 +6579,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="252" ht="40.5" spans="1:2">
+    <row r="252" spans="1:2">
       <c r="A252" s="1" t="s">
         <v>502</v>
       </c>
@@ -7204,7 +6587,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" ht="27" spans="1:2">
+    <row r="253" spans="1:2">
       <c r="A253" s="1" t="s">
         <v>504</v>
       </c>
@@ -7212,7 +6595,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="254" ht="40.5" spans="1:2">
+    <row r="254" spans="1:2">
       <c r="A254" s="1" t="s">
         <v>506</v>
       </c>
@@ -7220,7 +6603,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="255" ht="40.5" spans="1:2">
+    <row r="255" spans="1:2">
       <c r="A255" s="1" t="s">
         <v>508</v>
       </c>
@@ -7228,7 +6611,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="256" ht="40.5" spans="1:2">
+    <row r="256" spans="1:2">
       <c r="A256" s="1" t="s">
         <v>510</v>
       </c>
@@ -7236,7 +6619,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="257" ht="40.5" spans="1:2">
+    <row r="257" spans="1:2">
       <c r="A257" s="1" t="s">
         <v>512</v>
       </c>
@@ -7244,7 +6627,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="258" ht="40.5" spans="1:2">
+    <row r="258" spans="1:2">
       <c r="A258" s="1" t="s">
         <v>514</v>
       </c>
@@ -7252,7 +6635,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="259" ht="40.5" spans="1:2">
+    <row r="259" spans="1:2">
       <c r="A259" s="1" t="s">
         <v>516</v>
       </c>
@@ -7260,7 +6643,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="260" ht="40.5" spans="1:2">
+    <row r="260" spans="1:2">
       <c r="A260" s="1" t="s">
         <v>518</v>
       </c>
@@ -7268,7 +6651,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="261" ht="40.5" spans="1:2">
+    <row r="261" spans="1:2">
       <c r="A261" s="1" t="s">
         <v>520</v>
       </c>
@@ -7276,7 +6659,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="262" ht="40.5" spans="1:2">
+    <row r="262" spans="1:2">
       <c r="A262" s="1" t="s">
         <v>522</v>
       </c>
@@ -7284,7 +6667,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="263" ht="40.5" spans="1:2">
+    <row r="263" spans="1:2">
       <c r="A263" s="1" t="s">
         <v>524</v>
       </c>
@@ -7292,7 +6675,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="264" ht="27" spans="1:2">
+    <row r="264" spans="1:2">
       <c r="A264" s="1" t="s">
         <v>526</v>
       </c>
@@ -7300,7 +6683,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="265" ht="40.5" spans="1:2">
+    <row r="265" spans="1:2">
       <c r="A265" s="1" t="s">
         <v>528</v>
       </c>
@@ -7308,7 +6691,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="266" ht="40.5" spans="1:2">
+    <row r="266" spans="1:2">
       <c r="A266" s="1" t="s">
         <v>530</v>
       </c>
@@ -7316,7 +6699,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="267" ht="40.5" spans="1:2">
+    <row r="267" spans="1:2">
       <c r="A267" s="1" t="s">
         <v>532</v>
       </c>
@@ -7324,7 +6707,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="268" ht="40.5" spans="1:2">
+    <row r="268" spans="1:2">
       <c r="A268" s="1" t="s">
         <v>534</v>
       </c>
@@ -7332,7 +6715,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="269" ht="40.5" spans="1:2">
+    <row r="269" spans="1:2">
       <c r="A269" s="1" t="s">
         <v>536</v>
       </c>
@@ -7340,7 +6723,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="270" ht="40.5" spans="1:2">
+    <row r="270" spans="1:2">
       <c r="A270" s="1" t="s">
         <v>538</v>
       </c>
@@ -7348,7 +6731,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="271" ht="40.5" spans="1:2">
+    <row r="271" spans="1:2">
       <c r="A271" s="1" t="s">
         <v>540</v>
       </c>
@@ -7356,7 +6739,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="272" ht="40.5" spans="1:2">
+    <row r="272" spans="1:2">
       <c r="A272" s="1" t="s">
         <v>542</v>
       </c>
@@ -7364,7 +6747,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="273" ht="40.5" spans="1:2">
+    <row r="273" spans="1:2">
       <c r="A273" s="1" t="s">
         <v>544</v>
       </c>
@@ -7372,7 +6755,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="274" ht="27" spans="1:2">
+    <row r="274" spans="1:2">
       <c r="A274" s="1" t="s">
         <v>546</v>
       </c>
@@ -7380,7 +6763,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="275" ht="27" spans="1:2">
+    <row r="275" spans="1:2">
       <c r="A275" s="1" t="s">
         <v>548</v>
       </c>
@@ -7388,7 +6771,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="276" ht="40.5" spans="1:2">
+    <row r="276" spans="1:2">
       <c r="A276" s="1" t="s">
         <v>550</v>
       </c>
@@ -7396,7 +6779,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="277" ht="27" spans="1:2">
+    <row r="277" spans="1:2">
       <c r="A277" s="1" t="s">
         <v>552</v>
       </c>
@@ -7404,7 +6787,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="278" ht="27" spans="1:2">
+    <row r="278" spans="1:2">
       <c r="A278" s="1" t="s">
         <v>554</v>
       </c>
@@ -7412,7 +6795,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="279" ht="27" spans="1:2">
+    <row r="279" spans="1:2">
       <c r="A279" s="1" t="s">
         <v>556</v>
       </c>
@@ -7420,7 +6803,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="280" ht="27" spans="1:2">
+    <row r="280" spans="1:2">
       <c r="A280" s="1" t="s">
         <v>558</v>
       </c>
@@ -7428,7 +6811,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="281" ht="40.5" spans="1:2">
+    <row r="281" spans="1:2">
       <c r="A281" s="1" t="s">
         <v>560</v>
       </c>
@@ -7436,7 +6819,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="282" ht="27" spans="1:2">
+    <row r="282" spans="1:2">
       <c r="A282" s="1" t="s">
         <v>562</v>
       </c>
@@ -7444,7 +6827,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283" ht="40.5" spans="1:2">
+    <row r="283" spans="1:2">
       <c r="A283" s="1" t="s">
         <v>564</v>
       </c>
@@ -7452,7 +6835,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="284" ht="40.5" spans="1:2">
+    <row r="284" spans="1:2">
       <c r="A284" s="1" t="s">
         <v>566</v>
       </c>
@@ -7460,7 +6843,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="285" ht="40.5" spans="1:2">
+    <row r="285" spans="1:2">
       <c r="A285" s="1" t="s">
         <v>568</v>
       </c>
@@ -7468,7 +6851,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="286" ht="40.5" spans="1:2">
+    <row r="286" spans="1:2">
       <c r="A286" s="1" t="s">
         <v>570</v>
       </c>
@@ -7476,7 +6859,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="287" ht="40.5" spans="1:2">
+    <row r="287" spans="1:2">
       <c r="A287" s="1" t="s">
         <v>572</v>
       </c>
@@ -7484,7 +6867,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="288" ht="40.5" spans="1:2">
+    <row r="288" spans="1:2">
       <c r="A288" s="1" t="s">
         <v>574</v>
       </c>
@@ -7492,7 +6875,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="289" ht="40.5" spans="1:2">
+    <row r="289" spans="1:2">
       <c r="A289" s="1" t="s">
         <v>576</v>
       </c>
@@ -7500,7 +6883,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="290" ht="40.5" spans="1:2">
+    <row r="290" spans="1:2">
       <c r="A290" s="1" t="s">
         <v>578</v>
       </c>
@@ -7508,7 +6891,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="291" ht="27" spans="1:2">
+    <row r="291" spans="1:2">
       <c r="A291" s="1" t="s">
         <v>580</v>
       </c>
@@ -7516,7 +6899,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="292" ht="40.5" spans="1:2">
+    <row r="292" spans="1:2">
       <c r="A292" s="1" t="s">
         <v>582</v>
       </c>
@@ -7524,7 +6907,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="293" ht="40.5" spans="1:2">
+    <row r="293" spans="1:2">
       <c r="A293" s="1" t="s">
         <v>584</v>
       </c>
@@ -7532,7 +6915,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="294" ht="40.5" spans="1:2">
+    <row r="294" spans="1:2">
       <c r="A294" s="1" t="s">
         <v>586</v>
       </c>
@@ -7540,7 +6923,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="295" ht="40.5" spans="1:2">
+    <row r="295" spans="1:2">
       <c r="A295" s="1" t="s">
         <v>588</v>
       </c>
@@ -7548,7 +6931,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="296" ht="40.5" spans="1:2">
+    <row r="296" spans="1:2">
       <c r="A296" s="1" t="s">
         <v>590</v>
       </c>
@@ -7556,7 +6939,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="297" ht="40.5" spans="1:2">
+    <row r="297" spans="1:2">
       <c r="A297" s="1" t="s">
         <v>592</v>
       </c>
@@ -7564,7 +6947,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="298" ht="54" spans="1:2">
+    <row r="298" spans="1:2">
       <c r="A298" s="1" t="s">
         <v>594</v>
       </c>
@@ -7572,7 +6955,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="299" ht="40.5" spans="1:2">
+    <row r="299" spans="1:2">
       <c r="A299" s="1" t="s">
         <v>596</v>
       </c>
@@ -7580,7 +6963,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="300" ht="54" spans="1:2">
+    <row r="300" spans="1:2">
       <c r="A300" s="1" t="s">
         <v>598</v>
       </c>
@@ -7588,7 +6971,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="301" ht="54" spans="1:2">
+    <row r="301" spans="1:2">
       <c r="A301" s="1" t="s">
         <v>600</v>
       </c>
@@ -7596,7 +6979,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="302" ht="54" spans="1:2">
+    <row r="302" spans="1:2">
       <c r="A302" s="1" t="s">
         <v>602</v>
       </c>
@@ -7604,7 +6987,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="303" ht="40.5" spans="1:2">
+    <row r="303" spans="1:2">
       <c r="A303" s="1" t="s">
         <v>604</v>
       </c>
@@ -7612,7 +6995,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="304" ht="40.5" spans="1:2">
+    <row r="304" spans="1:2">
       <c r="A304" s="1" t="s">
         <v>606</v>
       </c>
@@ -7620,7 +7003,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="305" ht="40.5" spans="1:2">
+    <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
         <v>608</v>
       </c>
@@ -7628,7 +7011,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="306" ht="40.5" spans="1:2">
+    <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
         <v>610</v>
       </c>
@@ -7636,7 +7019,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="307" ht="40.5" spans="1:2">
+    <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
         <v>612</v>
       </c>
@@ -7644,7 +7027,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="308" ht="54" spans="1:2">
+    <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
         <v>614</v>
       </c>
@@ -7652,7 +7035,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="309" ht="40.5" spans="1:2">
+    <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
         <v>616</v>
       </c>
@@ -7660,7 +7043,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="310" ht="40.5" spans="1:2">
+    <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
         <v>618</v>
       </c>
@@ -7668,7 +7051,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="311" ht="54" spans="1:2">
+    <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
         <v>620</v>
       </c>
@@ -7676,7 +7059,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="312" ht="54" spans="1:2">
+    <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
         <v>622</v>
       </c>
@@ -7684,7 +7067,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="313" ht="40.5" spans="1:2">
+    <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
         <v>624</v>
       </c>
@@ -7692,7 +7075,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="314" ht="40.5" spans="1:2">
+    <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
         <v>626</v>
       </c>
@@ -7700,7 +7083,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="315" ht="40.5" spans="1:2">
+    <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
         <v>628</v>
       </c>
@@ -7708,7 +7091,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="316" ht="40.5" spans="1:2">
+    <row r="316" spans="1:2">
       <c r="A316" s="1" t="s">
         <v>630</v>
       </c>
@@ -7716,7 +7099,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="317" ht="40.5" spans="1:2">
+    <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
         <v>632</v>
       </c>
@@ -7724,7 +7107,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="318" ht="40.5" spans="1:2">
+    <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
         <v>634</v>
       </c>
@@ -7732,7 +7115,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="319" ht="40.5" spans="1:2">
+    <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
         <v>636</v>
       </c>
@@ -7740,7 +7123,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="320" ht="40.5" spans="1:2">
+    <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
         <v>638</v>
       </c>
@@ -7748,7 +7131,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" ht="40.5" spans="1:2">
+    <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
         <v>640</v>
       </c>
@@ -7756,7 +7139,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="322" ht="40.5" spans="1:2">
+    <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
         <v>642</v>
       </c>
@@ -7764,7 +7147,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="323" ht="27" spans="1:2">
+    <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
         <v>644</v>
       </c>
@@ -7772,7 +7155,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="324" ht="40.5" spans="1:2">
+    <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
         <v>646</v>
       </c>
@@ -7780,7 +7163,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="325" ht="40.5" spans="1:2">
+    <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
         <v>648</v>
       </c>
@@ -7788,7 +7171,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="326" ht="40.5" spans="1:2">
+    <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
         <v>650</v>
       </c>
@@ -7796,7 +7179,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="327" ht="27" spans="1:2">
+    <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
         <v>652</v>
       </c>
@@ -7804,7 +7187,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="328" ht="40.5" spans="1:2">
+    <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
         <v>654</v>
       </c>
@@ -7812,7 +7195,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="329" ht="27" spans="1:2">
+    <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
         <v>656</v>
       </c>
@@ -7820,7 +7203,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="330" ht="40.5" spans="1:2">
+    <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
         <v>658</v>
       </c>
@@ -7828,7 +7211,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="331" ht="27" spans="1:2">
+    <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
         <v>660</v>
       </c>
@@ -7836,7 +7219,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="332" ht="27" spans="1:2">
+    <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
         <v>662</v>
       </c>
@@ -7844,7 +7227,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="333" ht="40.5" spans="1:2">
+    <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
         <v>664</v>
       </c>
@@ -7852,7 +7235,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="334" ht="40.5" spans="1:2">
+    <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
         <v>666</v>
       </c>
@@ -7860,7 +7243,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="335" ht="40.5" spans="1:2">
+    <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
         <v>668</v>
       </c>
@@ -7868,7 +7251,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="336" ht="40.5" spans="1:2">
+    <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
         <v>670</v>
       </c>
@@ -7876,7 +7259,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="337" ht="40.5" spans="1:2">
+    <row r="337" spans="1:2">
       <c r="A337" s="1" t="s">
         <v>672</v>
       </c>
@@ -7884,7 +7267,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="338" ht="40.5" spans="1:2">
+    <row r="338" spans="1:2">
       <c r="A338" s="1" t="s">
         <v>674</v>
       </c>
@@ -7892,7 +7275,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="339" ht="27" spans="1:2">
+    <row r="339" spans="1:2">
       <c r="A339" s="1" t="s">
         <v>676</v>
       </c>
@@ -7900,7 +7283,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="340" ht="27" spans="1:2">
+    <row r="340" spans="1:2">
       <c r="A340" s="1" t="s">
         <v>678</v>
       </c>
@@ -7908,7 +7291,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="341" ht="40.5" spans="1:2">
+    <row r="341" spans="1:2">
       <c r="A341" s="1" t="s">
         <v>680</v>
       </c>
@@ -7916,7 +7299,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="342" ht="40.5" spans="1:2">
+    <row r="342" spans="1:2">
       <c r="A342" s="1" t="s">
         <v>682</v>
       </c>
@@ -7924,7 +7307,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="343" ht="40.5" spans="1:2">
+    <row r="343" spans="1:2">
       <c r="A343" s="1" t="s">
         <v>684</v>
       </c>
@@ -7932,7 +7315,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="344" ht="54" spans="1:2">
+    <row r="344" spans="1:2">
       <c r="A344" s="1" t="s">
         <v>686</v>
       </c>
@@ -7940,7 +7323,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="345" ht="27" spans="1:2">
+    <row r="345" spans="1:2">
       <c r="A345" s="1" t="s">
         <v>688</v>
       </c>
@@ -7948,7 +7331,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="346" ht="40.5" spans="1:2">
+    <row r="346" spans="1:2">
       <c r="A346" s="1" t="s">
         <v>690</v>
       </c>
@@ -7956,7 +7339,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="347" ht="27" spans="1:2">
+    <row r="347" spans="1:2">
       <c r="A347" s="1" t="s">
         <v>692</v>
       </c>
@@ -7964,7 +7347,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="348" ht="40.5" spans="1:2">
+    <row r="348" spans="1:2">
       <c r="A348" s="1" t="s">
         <v>694</v>
       </c>
@@ -7972,7 +7355,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="349" ht="40.5" spans="1:2">
+    <row r="349" spans="1:2">
       <c r="A349" s="1" t="s">
         <v>696</v>
       </c>
@@ -7980,7 +7363,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="350" ht="27" spans="1:2">
+    <row r="350" spans="1:2">
       <c r="A350" s="1" t="s">
         <v>698</v>
       </c>
@@ -7988,7 +7371,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="351" ht="40.5" spans="1:2">
+    <row r="351" spans="1:2">
       <c r="A351" s="1" t="s">
         <v>700</v>
       </c>
@@ -7996,7 +7379,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="352" ht="40.5" spans="1:2">
+    <row r="352" spans="1:2">
       <c r="A352" s="1" t="s">
         <v>702</v>
       </c>
@@ -8004,7 +7387,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="353" ht="40.5" spans="1:2">
+    <row r="353" spans="1:2">
       <c r="A353" s="1" t="s">
         <v>704</v>
       </c>
@@ -8012,7 +7395,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="354" ht="54" spans="1:2">
+    <row r="354" spans="1:2">
       <c r="A354" s="1" t="s">
         <v>706</v>
       </c>
@@ -8020,7 +7403,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="355" ht="54" spans="1:2">
+    <row r="355" spans="1:2">
       <c r="A355" s="1" t="s">
         <v>708</v>
       </c>
@@ -8028,7 +7411,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="356" ht="54" spans="1:2">
+    <row r="356" spans="1:2">
       <c r="A356" s="1" t="s">
         <v>710</v>
       </c>
@@ -8036,7 +7419,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="357" ht="40.5" spans="1:2">
+    <row r="357" spans="1:2">
       <c r="A357" s="1" t="s">
         <v>712</v>
       </c>
@@ -8044,7 +7427,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="358" ht="40.5" spans="1:2">
+    <row r="358" spans="1:2">
       <c r="A358" s="1" t="s">
         <v>714</v>
       </c>
@@ -8052,7 +7435,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="359" ht="40.5" spans="1:2">
+    <row r="359" spans="1:2">
       <c r="A359" s="1" t="s">
         <v>716</v>
       </c>
@@ -8060,7 +7443,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="360" ht="40.5" spans="1:2">
+    <row r="360" spans="1:2">
       <c r="A360" s="6" t="s">
         <v>718</v>
       </c>
@@ -8068,7 +7451,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="361" ht="54" spans="1:2">
+    <row r="361" spans="1:2">
       <c r="A361" s="1" t="s">
         <v>720</v>
       </c>
@@ -8076,7 +7459,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="362" ht="40.5" spans="1:2">
+    <row r="362" spans="1:2">
       <c r="A362" s="1" t="s">
         <v>722</v>
       </c>
@@ -8084,7 +7467,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="363" ht="40.5" spans="1:2">
+    <row r="363" spans="1:2">
       <c r="A363" s="1" t="s">
         <v>724</v>
       </c>
@@ -8092,7 +7475,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="364" ht="54" spans="1:2">
+    <row r="364" spans="1:2">
       <c r="A364" s="1" t="s">
         <v>726</v>
       </c>
@@ -8100,7 +7483,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="365" ht="27" spans="1:2">
+    <row r="365" spans="1:2">
       <c r="A365" s="1" t="s">
         <v>728</v>
       </c>
@@ -8108,7 +7491,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="366" ht="40.5" spans="1:2">
+    <row r="366" spans="1:2">
       <c r="A366" s="1" t="s">
         <v>730</v>
       </c>
@@ -8116,7 +7499,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="367" ht="40.5" spans="1:2">
+    <row r="367" spans="1:2">
       <c r="A367" s="1" t="s">
         <v>732</v>
       </c>
@@ -8124,7 +7507,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="368" ht="27" spans="1:2">
+    <row r="368" spans="1:2">
       <c r="A368" s="1" t="s">
         <v>734</v>
       </c>
@@ -8132,7 +7515,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="369" ht="40.5" spans="1:2">
+    <row r="369" spans="1:2">
       <c r="A369" s="1" t="s">
         <v>736</v>
       </c>
@@ -8140,7 +7523,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="370" ht="27" spans="1:2">
+    <row r="370" spans="1:2">
       <c r="A370" s="1" t="s">
         <v>738</v>
       </c>
@@ -8148,7 +7531,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="371" ht="40.5" spans="1:2">
+    <row r="371" spans="1:2">
       <c r="A371" s="1" t="s">
         <v>740</v>
       </c>
@@ -8156,7 +7539,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="372" ht="27" spans="1:2">
+    <row r="372" spans="1:2">
       <c r="A372" s="1" t="s">
         <v>742</v>
       </c>
@@ -8164,7 +7547,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="373" ht="40.5" spans="1:2">
+    <row r="373" spans="1:2">
       <c r="A373" s="1" t="s">
         <v>744</v>
       </c>
@@ -8172,7 +7555,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="374" ht="40.5" spans="1:2">
+    <row r="374" spans="1:2">
       <c r="A374" s="1" t="s">
         <v>746</v>
       </c>
@@ -8180,7 +7563,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="375" ht="27" spans="1:2">
+    <row r="375" spans="1:2">
       <c r="A375" s="1" t="s">
         <v>748</v>
       </c>
@@ -8188,7 +7571,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="376" ht="40.5" spans="1:2">
+    <row r="376" spans="1:2">
       <c r="A376" s="1" t="s">
         <v>750</v>
       </c>
@@ -8196,7 +7579,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="377" ht="27" spans="1:2">
+    <row r="377" spans="1:2">
       <c r="A377" s="1" t="s">
         <v>752</v>
       </c>
@@ -8204,7 +7587,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="378" ht="40.5" spans="1:2">
+    <row r="378" spans="1:2">
       <c r="A378" s="1" t="s">
         <v>754</v>
       </c>
@@ -8212,7 +7595,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="379" ht="40.5" spans="1:2">
+    <row r="379" spans="1:2">
       <c r="A379" s="1" t="s">
         <v>756</v>
       </c>
@@ -8220,7 +7603,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="380" ht="40.5" spans="1:2">
+    <row r="380" spans="1:2">
       <c r="A380" s="1" t="s">
         <v>758</v>
       </c>
@@ -8228,7 +7611,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="381" ht="40.5" spans="1:2">
+    <row r="381" spans="1:2">
       <c r="A381" s="1" t="s">
         <v>760</v>
       </c>
@@ -8236,7 +7619,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="382" ht="40.5" spans="1:2">
+    <row r="382" spans="1:2">
       <c r="A382" s="1" t="s">
         <v>762</v>
       </c>
@@ -8244,7 +7627,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="383" ht="40.5" spans="1:2">
+    <row r="383" spans="1:2">
       <c r="A383" s="1" t="s">
         <v>764</v>
       </c>
@@ -8252,7 +7635,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="384" ht="40.5" spans="1:2">
+    <row r="384" spans="1:2">
       <c r="A384" s="1" t="s">
         <v>766</v>
       </c>
@@ -8260,7 +7643,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="385" ht="40.5" spans="1:2">
+    <row r="385" spans="1:2">
       <c r="A385" s="1" t="s">
         <v>768</v>
       </c>
@@ -8268,7 +7651,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="386" ht="40.5" spans="1:2">
+    <row r="386" spans="1:2">
       <c r="A386" s="1" t="s">
         <v>770</v>
       </c>
@@ -8276,7 +7659,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="387" ht="40.5" spans="1:2">
+    <row r="387" spans="1:2">
       <c r="A387" s="1" t="s">
         <v>772</v>
       </c>
@@ -8284,7 +7667,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="388" ht="40.5" spans="1:2">
+    <row r="388" spans="1:2">
       <c r="A388" s="1" t="s">
         <v>774</v>
       </c>
@@ -8292,7 +7675,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="389" ht="40.5" spans="1:2">
+    <row r="389" spans="1:2">
       <c r="A389" s="1" t="s">
         <v>776</v>
       </c>
@@ -8300,7 +7683,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="390" ht="40.5" spans="1:2">
+    <row r="390" spans="1:2">
       <c r="A390" s="1" t="s">
         <v>778</v>
       </c>
@@ -8308,7 +7691,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="391" ht="40.5" spans="1:2">
+    <row r="391" spans="1:2">
       <c r="A391" s="1" t="s">
         <v>780</v>
       </c>
@@ -8316,7 +7699,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="392" ht="40.5" spans="1:2">
+    <row r="392" spans="1:2">
       <c r="A392" s="1" t="s">
         <v>782</v>
       </c>
@@ -8324,7 +7707,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="393" ht="40.5" spans="1:2">
+    <row r="393" spans="1:2">
       <c r="A393" s="1" t="s">
         <v>784</v>
       </c>
@@ -8332,7 +7715,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="394" ht="40.5" spans="1:2">
+    <row r="394" spans="1:2">
       <c r="A394" s="1" t="s">
         <v>786</v>
       </c>
@@ -8340,7 +7723,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="395" ht="40.5" spans="1:2">
+    <row r="395" spans="1:2">
       <c r="A395" s="1" t="s">
         <v>788</v>
       </c>
@@ -8348,7 +7731,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="396" ht="40.5" spans="1:2">
+    <row r="396" spans="1:2">
       <c r="A396" s="1" t="s">
         <v>790</v>
       </c>
@@ -8356,7 +7739,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="397" ht="40.5" spans="1:2">
+    <row r="397" spans="1:2">
       <c r="A397" s="1" t="s">
         <v>792</v>
       </c>
@@ -8364,7 +7747,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="398" ht="40.5" spans="1:2">
+    <row r="398" spans="1:2">
       <c r="A398" s="1" t="s">
         <v>794</v>
       </c>
@@ -8372,7 +7755,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="399" ht="40.5" spans="1:2">
+    <row r="399" spans="1:2">
       <c r="A399" s="1" t="s">
         <v>796</v>
       </c>
@@ -8380,7 +7763,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="400" ht="40.5" spans="1:2">
+    <row r="400" spans="1:2">
       <c r="A400" s="1" t="s">
         <v>798</v>
       </c>
@@ -8388,7 +7771,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="401" ht="27" spans="1:2">
+    <row r="401" spans="1:2">
       <c r="A401" s="1" t="s">
         <v>800</v>
       </c>
@@ -8396,7 +7779,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="402" ht="27" spans="1:2">
+    <row r="402" spans="1:2">
       <c r="A402" s="1" t="s">
         <v>802</v>
       </c>
@@ -8404,7 +7787,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="403" ht="27" spans="1:2">
+    <row r="403" spans="1:2">
       <c r="A403" s="1" t="s">
         <v>804</v>
       </c>
@@ -8412,7 +7795,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="404" ht="40.5" spans="1:2">
+    <row r="404" spans="1:2">
       <c r="A404" s="1" t="s">
         <v>806</v>
       </c>
@@ -8420,7 +7803,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="405" ht="27" spans="1:2">
+    <row r="405" spans="1:2">
       <c r="A405" s="1" t="s">
         <v>808</v>
       </c>
@@ -8428,7 +7811,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="406" ht="40.5" spans="1:2">
+    <row r="406" spans="1:2">
       <c r="A406" s="1" t="s">
         <v>810</v>
       </c>
@@ -8436,7 +7819,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="407" ht="27" spans="1:2">
+    <row r="407" spans="1:2">
       <c r="A407" s="1" t="s">
         <v>812</v>
       </c>
@@ -8444,7 +7827,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="408" ht="40.5" spans="1:2">
+    <row r="408" spans="1:2">
       <c r="A408" s="1" t="s">
         <v>814</v>
       </c>
@@ -8452,7 +7835,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="409" ht="40.5" spans="1:2">
+    <row r="409" spans="1:2">
       <c r="A409" s="1" t="s">
         <v>816</v>
       </c>
@@ -8460,7 +7843,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="410" ht="40.5" spans="1:2">
+    <row r="410" spans="1:2">
       <c r="A410" s="1" t="s">
         <v>818</v>
       </c>
@@ -8468,7 +7851,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="411" ht="40.5" spans="1:2">
+    <row r="411" spans="1:2">
       <c r="A411" s="1" t="s">
         <v>820</v>
       </c>
@@ -8476,7 +7859,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="412" ht="40.5" spans="1:2">
+    <row r="412" spans="1:2">
       <c r="A412" s="1" t="s">
         <v>822</v>
       </c>
@@ -8484,7 +7867,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="413" ht="40.5" spans="1:2">
+    <row r="413" spans="1:2">
       <c r="A413" s="1" t="s">
         <v>824</v>
       </c>
@@ -8492,7 +7875,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="414" ht="40.5" spans="1:2">
+    <row r="414" spans="1:2">
       <c r="A414" s="1" t="s">
         <v>826</v>
       </c>
@@ -8500,7 +7883,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="415" ht="40.5" spans="1:2">
+    <row r="415" spans="1:2">
       <c r="A415" s="1" t="s">
         <v>828</v>
       </c>
@@ -8508,7 +7891,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="416" ht="40.5" spans="1:2">
+    <row r="416" spans="1:2">
       <c r="A416" s="1" t="s">
         <v>830</v>
       </c>
@@ -8516,7 +7899,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="417" ht="40.5" spans="1:2">
+    <row r="417" spans="1:2">
       <c r="A417" s="1" t="s">
         <v>832</v>
       </c>
@@ -8524,7 +7907,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="418" ht="40.5" spans="1:2">
+    <row r="418" spans="1:2">
       <c r="A418" s="1" t="s">
         <v>834</v>
       </c>
@@ -8532,7 +7915,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="419" ht="54" spans="1:2">
+    <row r="419" spans="1:2">
       <c r="A419" s="1" t="s">
         <v>836</v>
       </c>
@@ -8540,7 +7923,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="420" ht="40.5" spans="1:2">
+    <row r="420" spans="1:2">
       <c r="A420" s="1" t="s">
         <v>838</v>
       </c>
@@ -8548,7 +7931,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="421" ht="40.5" spans="1:2">
+    <row r="421" spans="1:2">
       <c r="A421" s="1" t="s">
         <v>840</v>
       </c>
@@ -8556,7 +7939,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="422" ht="40.5" spans="1:2">
+    <row r="422" spans="1:2">
       <c r="A422" s="1" t="s">
         <v>842</v>
       </c>
@@ -8564,7 +7947,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="423" ht="40.5" spans="1:2">
+    <row r="423" spans="1:2">
       <c r="A423" s="1" t="s">
         <v>844</v>
       </c>
@@ -8572,7 +7955,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="424" ht="40.5" spans="1:2">
+    <row r="424" spans="1:2">
       <c r="A424" s="1" t="s">
         <v>846</v>
       </c>
@@ -8580,7 +7963,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="425" ht="40.5" spans="1:2">
+    <row r="425" spans="1:2">
       <c r="A425" s="1" t="s">
         <v>848</v>
       </c>
@@ -8588,7 +7971,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="426" ht="40.5" spans="1:2">
+    <row r="426" spans="1:2">
       <c r="A426" s="1" t="s">
         <v>850</v>
       </c>
@@ -8596,7 +7979,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="427" ht="40.5" spans="1:2">
+    <row r="427" spans="1:2">
       <c r="A427" s="1" t="s">
         <v>852</v>
       </c>
@@ -8604,7 +7987,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="428" ht="40.5" spans="1:2">
+    <row r="428" spans="1:2">
       <c r="A428" s="1" t="s">
         <v>854</v>
       </c>
@@ -8612,7 +7995,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="429" ht="40.5" spans="1:2">
+    <row r="429" spans="1:2">
       <c r="A429" s="1" t="s">
         <v>856</v>
       </c>
@@ -8620,7 +8003,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="430" ht="40.5" spans="1:2">
+    <row r="430" spans="1:2">
       <c r="A430" s="1" t="s">
         <v>858</v>
       </c>
@@ -8628,7 +8011,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="431" ht="40.5" spans="1:2">
+    <row r="431" spans="1:2">
       <c r="A431" s="1" t="s">
         <v>860</v>
       </c>
@@ -8636,7 +8019,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="432" ht="54" spans="1:2">
+    <row r="432" spans="1:2">
       <c r="A432" s="1" t="s">
         <v>862</v>
       </c>
@@ -8644,7 +8027,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="433" ht="40.5" spans="1:2">
+    <row r="433" spans="1:2">
       <c r="A433" s="1" t="s">
         <v>864</v>
       </c>
@@ -8652,7 +8035,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="434" ht="54" spans="1:2">
+    <row r="434" spans="1:2">
       <c r="A434" s="1" t="s">
         <v>866</v>
       </c>
@@ -8660,7 +8043,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="435" ht="54" spans="1:2">
+    <row r="435" spans="1:2">
       <c r="A435" s="1" t="s">
         <v>868</v>
       </c>
@@ -8668,7 +8051,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="436" ht="40.5" spans="1:2">
+    <row r="436" spans="1:2">
       <c r="A436" s="1" t="s">
         <v>870</v>
       </c>
@@ -8676,7 +8059,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="437" ht="27" spans="1:2">
+    <row r="437" spans="1:2">
       <c r="A437" s="1" t="s">
         <v>872</v>
       </c>
@@ -8684,7 +8067,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="438" ht="54" spans="1:2">
+    <row r="438" spans="1:2">
       <c r="A438" s="1" t="s">
         <v>874</v>
       </c>
@@ -8692,7 +8075,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="439" ht="27" spans="1:2">
+    <row r="439" spans="1:2">
       <c r="A439" s="1" t="s">
         <v>876</v>
       </c>
@@ -8700,7 +8083,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="440" ht="40.5" spans="1:2">
+    <row r="440" spans="1:2">
       <c r="A440" s="1" t="s">
         <v>878</v>
       </c>
@@ -8708,7 +8091,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="441" ht="40.5" spans="1:2">
+    <row r="441" spans="1:2">
       <c r="A441" s="1" t="s">
         <v>880</v>
       </c>
@@ -8716,7 +8099,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="442" ht="40.5" spans="1:2">
+    <row r="442" spans="1:2">
       <c r="A442" s="1" t="s">
         <v>882</v>
       </c>
@@ -8724,7 +8107,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="443" ht="40.5" spans="1:2">
+    <row r="443" spans="1:2">
       <c r="A443" s="1" t="s">
         <v>884</v>
       </c>
@@ -8732,7 +8115,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="444" ht="27" spans="1:2">
+    <row r="444" spans="1:2">
       <c r="A444" s="1" t="s">
         <v>886</v>
       </c>
@@ -8740,7 +8123,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="445" ht="54" spans="1:2">
+    <row r="445" spans="1:2">
       <c r="A445" s="1" t="s">
         <v>888</v>
       </c>
@@ -8748,7 +8131,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="446" ht="40.5" spans="1:2">
+    <row r="446" spans="1:2">
       <c r="A446" s="1" t="s">
         <v>890</v>
       </c>
@@ -8756,7 +8139,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="447" ht="27" spans="1:2">
+    <row r="447" spans="1:2">
       <c r="A447" s="1" t="s">
         <v>892</v>
       </c>
@@ -8764,7 +8147,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="448" ht="40.5" spans="1:2">
+    <row r="448" spans="1:2">
       <c r="A448" s="1" t="s">
         <v>894</v>
       </c>
@@ -8772,7 +8155,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="449" ht="40.5" spans="1:2">
+    <row r="449" spans="1:2">
       <c r="A449" s="1" t="s">
         <v>896</v>
       </c>
@@ -8780,7 +8163,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="450" ht="40.5" spans="1:2">
+    <row r="450" spans="1:2">
       <c r="A450" s="1" t="s">
         <v>898</v>
       </c>
@@ -8788,7 +8171,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="451" ht="40.5" spans="1:2">
+    <row r="451" spans="1:2">
       <c r="A451" s="1" t="s">
         <v>900</v>
       </c>
@@ -8796,7 +8179,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="452" ht="27" spans="1:2">
+    <row r="452" spans="1:2">
       <c r="A452" s="1" t="s">
         <v>902</v>
       </c>
@@ -8804,7 +8187,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="453" ht="54" spans="1:2">
+    <row r="453" spans="1:2">
       <c r="A453" s="1" t="s">
         <v>904</v>
       </c>
@@ -8812,7 +8195,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="454" ht="40.5" spans="1:2">
+    <row r="454" spans="1:2">
       <c r="A454" s="1" t="s">
         <v>906</v>
       </c>
@@ -8820,7 +8203,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="455" ht="40.5" spans="1:2">
+    <row r="455" spans="1:2">
       <c r="A455" s="1" t="s">
         <v>908</v>
       </c>
@@ -8828,7 +8211,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="456" ht="27" spans="1:2">
+    <row r="456" spans="1:2">
       <c r="A456" s="1" t="s">
         <v>910</v>
       </c>
@@ -8836,7 +8219,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="457" ht="40.5" spans="1:2">
+    <row r="457" spans="1:2">
       <c r="A457" s="1" t="s">
         <v>912</v>
       </c>
@@ -8844,7 +8227,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="458" ht="40.5" spans="1:2">
+    <row r="458" spans="1:2">
       <c r="A458" s="1" t="s">
         <v>914</v>
       </c>
@@ -8852,7 +8235,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="459" ht="40.5" spans="1:2">
+    <row r="459" spans="1:2">
       <c r="A459" s="1" t="s">
         <v>916</v>
       </c>
@@ -8860,7 +8243,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="460" ht="40.5" spans="1:2">
+    <row r="460" spans="1:2">
       <c r="A460" s="1" t="s">
         <v>918</v>
       </c>
@@ -8868,7 +8251,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="461" ht="27" spans="1:2">
+    <row r="461" spans="1:2">
       <c r="A461" s="1" t="s">
         <v>920</v>
       </c>
@@ -8876,7 +8259,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="462" ht="40.5" spans="1:2">
+    <row r="462" spans="1:2">
       <c r="A462" s="1" t="s">
         <v>922</v>
       </c>
@@ -8884,7 +8267,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="463" ht="27" spans="1:2">
+    <row r="463" spans="1:2">
       <c r="A463" s="1" t="s">
         <v>924</v>
       </c>
@@ -8892,7 +8275,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="464" ht="40.5" spans="1:2">
+    <row r="464" spans="1:2">
       <c r="A464" s="1" t="s">
         <v>926</v>
       </c>
@@ -8900,7 +8283,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="465" ht="40.5" spans="1:2">
+    <row r="465" spans="1:2">
       <c r="A465" s="1" t="s">
         <v>928</v>
       </c>
@@ -8908,7 +8291,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="466" ht="40.5" spans="1:2">
+    <row r="466" spans="1:2">
       <c r="A466" s="6" t="s">
         <v>930</v>
       </c>
@@ -8916,7 +8299,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="467" ht="40.5" spans="1:2">
+    <row r="467" spans="1:2">
       <c r="A467" s="1" t="s">
         <v>932</v>
       </c>
@@ -8924,7 +8307,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="468" ht="40.5" spans="1:2">
+    <row r="468" spans="1:2">
       <c r="A468" s="1" t="s">
         <v>934</v>
       </c>
@@ -8932,7 +8315,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="469" ht="40.5" spans="1:2">
+    <row r="469" spans="1:2">
       <c r="A469" s="1" t="s">
         <v>936</v>
       </c>
@@ -8940,7 +8323,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="470" ht="27" spans="1:2">
+    <row r="470" spans="1:2">
       <c r="A470" s="1" t="s">
         <v>938</v>
       </c>
@@ -8948,7 +8331,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="471" ht="27" spans="1:2">
+    <row r="471" spans="1:2">
       <c r="A471" s="1" t="s">
         <v>940</v>
       </c>
@@ -8956,7 +8339,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="472" ht="40.5" spans="1:2">
+    <row r="472" spans="1:2">
       <c r="A472" s="1" t="s">
         <v>942</v>
       </c>
@@ -8964,7 +8347,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="473" ht="40.5" spans="1:2">
+    <row r="473" spans="1:2">
       <c r="A473" s="1" t="s">
         <v>944</v>
       </c>
@@ -8972,7 +8355,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="474" ht="40.5" spans="1:2">
+    <row r="474" spans="1:2">
       <c r="A474" s="1" t="s">
         <v>946</v>
       </c>
@@ -8980,7 +8363,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="475" ht="40.5" spans="1:2">
+    <row r="475" spans="1:2">
       <c r="A475" s="1" t="s">
         <v>948</v>
       </c>
@@ -8988,7 +8371,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="476" ht="40.5" spans="1:2">
+    <row r="476" spans="1:2">
       <c r="A476" s="1" t="s">
         <v>950</v>
       </c>
@@ -8996,7 +8379,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="477" ht="40.5" spans="1:2">
+    <row r="477" spans="1:2">
       <c r="A477" s="1" t="s">
         <v>952</v>
       </c>
@@ -9004,7 +8387,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="478" ht="54" spans="1:2">
+    <row r="478" spans="1:2">
       <c r="A478" s="1" t="s">
         <v>954</v>
       </c>
@@ -9012,7 +8395,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="479" ht="54" spans="1:2">
+    <row r="479" spans="1:2">
       <c r="A479" s="1" t="s">
         <v>956</v>
       </c>
@@ -9020,7 +8403,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="480" ht="27" spans="1:2">
+    <row r="480" spans="1:2">
       <c r="A480" s="1" t="s">
         <v>958</v>
       </c>
@@ -9028,7 +8411,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="481" ht="40.5" spans="1:2">
+    <row r="481" spans="1:2">
       <c r="A481" s="1" t="s">
         <v>960</v>
       </c>
@@ -9036,7 +8419,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="482" ht="40.5" spans="1:2">
+    <row r="482" spans="1:2">
       <c r="A482" s="1" t="s">
         <v>962</v>
       </c>
@@ -9044,7 +8427,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="483" ht="27" spans="1:2">
+    <row r="483" spans="1:2">
       <c r="A483" s="1" t="s">
         <v>964</v>
       </c>
@@ -9052,7 +8435,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="484" ht="27" spans="1:2">
+    <row r="484" spans="1:2">
       <c r="A484" s="1" t="s">
         <v>966</v>
       </c>
@@ -9060,7 +8443,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="485" ht="40.5" spans="1:2">
+    <row r="485" spans="1:2">
       <c r="A485" s="1" t="s">
         <v>968</v>
       </c>
@@ -9068,7 +8451,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="486" ht="40.5" spans="1:2">
+    <row r="486" spans="1:2">
       <c r="A486" s="1" t="s">
         <v>970</v>
       </c>
@@ -9076,7 +8459,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="487" ht="40.5" spans="1:2">
+    <row r="487" spans="1:2">
       <c r="A487" s="1" t="s">
         <v>972</v>
       </c>
@@ -9084,7 +8467,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="488" ht="40.5" spans="1:2">
+    <row r="488" spans="1:2">
       <c r="A488" s="1" t="s">
         <v>974</v>
       </c>
@@ -9092,7 +8475,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="489" ht="40.5" spans="1:2">
+    <row r="489" spans="1:2">
       <c r="A489" s="1" t="s">
         <v>976</v>
       </c>
@@ -9100,7 +8483,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="490" ht="40.5" spans="1:2">
+    <row r="490" spans="1:2">
       <c r="A490" s="1" t="s">
         <v>978</v>
       </c>
@@ -9108,7 +8491,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="491" ht="40.5" spans="1:2">
+    <row r="491" spans="1:2">
       <c r="A491" s="1" t="s">
         <v>980</v>
       </c>
@@ -9116,7 +8499,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="492" ht="27" spans="1:2">
+    <row r="492" spans="1:2">
       <c r="A492" s="1" t="s">
         <v>982</v>
       </c>
@@ -9124,7 +8507,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="493" ht="40.5" spans="1:2">
+    <row r="493" spans="1:2">
       <c r="A493" s="1" t="s">
         <v>984</v>
       </c>
@@ -9132,7 +8515,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="494" ht="40.5" spans="1:2">
+    <row r="494" spans="1:2">
       <c r="A494" s="1" t="s">
         <v>986</v>
       </c>
@@ -9140,7 +8523,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="495" ht="40.5" spans="1:2">
+    <row r="495" spans="1:2">
       <c r="A495" s="1" t="s">
         <v>988</v>
       </c>
@@ -9148,7 +8531,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="496" ht="27" spans="1:2">
+    <row r="496" spans="1:2">
       <c r="A496" s="1" t="s">
         <v>990</v>
       </c>
@@ -9156,7 +8539,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="497" ht="40.5" spans="1:2">
+    <row r="497" spans="1:2">
       <c r="A497" s="1" t="s">
         <v>992</v>
       </c>
@@ -9164,7 +8547,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="498" ht="40.5" spans="1:2">
+    <row r="498" spans="1:2">
       <c r="A498" s="1" t="s">
         <v>994</v>
       </c>
@@ -9172,7 +8555,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="499" ht="40.5" spans="1:2">
+    <row r="499" spans="1:2">
       <c r="A499" s="1" t="s">
         <v>996</v>
       </c>
@@ -9180,7 +8563,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="500" ht="40.5" spans="1:2">
+    <row r="500" spans="1:2">
       <c r="A500" s="1" t="s">
         <v>998</v>
       </c>
@@ -9188,7 +8571,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="501" ht="40.5" spans="1:2">
+    <row r="501" spans="1:2">
       <c r="A501" s="1" t="s">
         <v>1000</v>
       </c>
@@ -9196,7 +8579,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="502" ht="40.5" spans="1:2">
+    <row r="502" spans="1:2">
       <c r="A502" s="1" t="s">
         <v>1002</v>
       </c>
@@ -9204,7 +8587,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="503" ht="40.5" spans="1:2">
+    <row r="503" spans="1:2">
       <c r="A503" s="1" t="s">
         <v>1004</v>
       </c>
@@ -9212,7 +8595,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="504" ht="40.5" spans="1:2">
+    <row r="504" spans="1:2">
       <c r="A504" s="1" t="s">
         <v>1006</v>
       </c>
@@ -9220,7 +8603,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="505" ht="40.5" spans="1:2">
+    <row r="505" spans="1:2">
       <c r="A505" s="1" t="s">
         <v>1008</v>
       </c>
@@ -9228,7 +8611,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="506" ht="40.5" spans="1:2">
+    <row r="506" spans="1:2">
       <c r="A506" s="1" t="s">
         <v>1010</v>
       </c>
@@ -9236,7 +8619,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="507" ht="40.5" spans="1:2">
+    <row r="507" spans="1:2">
       <c r="A507" s="1" t="s">
         <v>1012</v>
       </c>
@@ -9244,7 +8627,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="508" ht="40.5" spans="1:2">
+    <row r="508" spans="1:2">
       <c r="A508" s="1" t="s">
         <v>1014</v>
       </c>
@@ -9252,7 +8635,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="509" ht="40.5" spans="1:2">
+    <row r="509" spans="1:2">
       <c r="A509" s="1" t="s">
         <v>1016</v>
       </c>
@@ -9260,7 +8643,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="510" ht="40.5" spans="1:2">
+    <row r="510" spans="1:2">
       <c r="A510" s="1" t="s">
         <v>1018</v>
       </c>
@@ -9268,7 +8651,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="511" ht="40.5" spans="1:2">
+    <row r="511" spans="1:2">
       <c r="A511" s="1" t="s">
         <v>1020</v>
       </c>
@@ -9276,7 +8659,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="512" ht="40.5" spans="1:2">
+    <row r="512" spans="1:2">
       <c r="A512" s="1" t="s">
         <v>1022</v>
       </c>
@@ -9284,7 +8667,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="513" ht="40.5" spans="1:2">
+    <row r="513" spans="1:2">
       <c r="A513" s="1" t="s">
         <v>1024</v>
       </c>
@@ -9292,7 +8675,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="514" ht="40.5" spans="1:2">
+    <row r="514" spans="1:2">
       <c r="A514" s="1" t="s">
         <v>1026</v>
       </c>
@@ -9300,7 +8683,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="515" ht="40.5" spans="1:2">
+    <row r="515" spans="1:2">
       <c r="A515" s="1" t="s">
         <v>1028</v>
       </c>
@@ -9308,7 +8691,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="516" ht="40.5" spans="1:2">
+    <row r="516" spans="1:2">
       <c r="A516" s="1" t="s">
         <v>1030</v>
       </c>
@@ -9316,7 +8699,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="517" ht="40.5" spans="1:2">
+    <row r="517" spans="1:2">
       <c r="A517" s="1" t="s">
         <v>1032</v>
       </c>
@@ -9324,7 +8707,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="518" ht="40.5" spans="1:2">
+    <row r="518" spans="1:2">
       <c r="A518" s="1" t="s">
         <v>1034</v>
       </c>
@@ -9332,7 +8715,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="519" ht="40.5" spans="1:2">
+    <row r="519" spans="1:2">
       <c r="A519" s="1" t="s">
         <v>1036</v>
       </c>
@@ -9340,7 +8723,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="520" ht="40.5" spans="1:2">
+    <row r="520" spans="1:2">
       <c r="A520" s="1" t="s">
         <v>1038</v>
       </c>
@@ -9348,7 +8731,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="521" ht="40.5" spans="1:2">
+    <row r="521" spans="1:2">
       <c r="A521" s="1" t="s">
         <v>1040</v>
       </c>
@@ -9356,7 +8739,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="522" ht="40.5" spans="1:2">
+    <row r="522" spans="1:2">
       <c r="A522" s="1" t="s">
         <v>1042</v>
       </c>
@@ -9364,7 +8747,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="523" ht="40.5" spans="1:2">
+    <row r="523" spans="1:2">
       <c r="A523" s="1" t="s">
         <v>1044</v>
       </c>
@@ -9372,7 +8755,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="524" ht="40.5" spans="1:2">
+    <row r="524" spans="1:2">
       <c r="A524" s="1" t="s">
         <v>1046</v>
       </c>
@@ -9380,7 +8763,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="525" ht="27" spans="1:2">
+    <row r="525" spans="1:2">
       <c r="A525" s="1" t="s">
         <v>1048</v>
       </c>
@@ -9388,7 +8771,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="526" ht="27" spans="1:2">
+    <row r="526" spans="1:2">
       <c r="A526" s="1" t="s">
         <v>1050</v>
       </c>
@@ -9396,7 +8779,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="527" ht="27" spans="1:2">
+    <row r="527" spans="1:2">
       <c r="A527" s="1" t="s">
         <v>1052</v>
       </c>
@@ -9404,7 +8787,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="528" ht="27" spans="1:2">
+    <row r="528" spans="1:2">
       <c r="A528" s="1" t="s">
         <v>1054</v>
       </c>
@@ -9412,7 +8795,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="529" ht="27" spans="1:2">
+    <row r="529" spans="1:2">
       <c r="A529" s="1" t="s">
         <v>1056</v>
       </c>
@@ -9420,7 +8803,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="530" ht="40.5" spans="1:2">
+    <row r="530" spans="1:2">
       <c r="A530" s="1" t="s">
         <v>1058</v>
       </c>
@@ -9428,7 +8811,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="531" ht="27" spans="1:2">
+    <row r="531" spans="1:2">
       <c r="A531" s="1" t="s">
         <v>1060</v>
       </c>
@@ -9436,7 +8819,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="532" ht="40.5" spans="1:2">
+    <row r="532" spans="1:2">
       <c r="A532" s="1" t="s">
         <v>1062</v>
       </c>
@@ -9444,7 +8827,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="533" ht="27" spans="1:2">
+    <row r="533" spans="1:2">
       <c r="A533" s="1" t="s">
         <v>1064</v>
       </c>
@@ -9452,7 +8835,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="534" ht="40.5" spans="1:2">
+    <row r="534" spans="1:2">
       <c r="A534" s="1" t="s">
         <v>1066</v>
       </c>
@@ -9460,7 +8843,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="535" ht="40.5" spans="1:2">
+    <row r="535" spans="1:2">
       <c r="A535" s="1" t="s">
         <v>1068</v>
       </c>
@@ -9468,7 +8851,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="536" ht="40.5" spans="1:2">
+    <row r="536" spans="1:2">
       <c r="A536" s="1" t="s">
         <v>1070</v>
       </c>
@@ -9476,7 +8859,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="537" ht="40.5" spans="1:2">
+    <row r="537" spans="1:2">
       <c r="A537" s="1" t="s">
         <v>1072</v>
       </c>
@@ -9484,7 +8867,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="538" ht="40.5" spans="1:2">
+    <row r="538" spans="1:2">
       <c r="A538" s="1" t="s">
         <v>1074</v>
       </c>
@@ -9492,7 +8875,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="539" ht="40.5" spans="1:2">
+    <row r="539" spans="1:2">
       <c r="A539" s="1" t="s">
         <v>1076</v>
       </c>
@@ -9500,7 +8883,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="540" ht="27" spans="1:2">
+    <row r="540" spans="1:2">
       <c r="A540" s="1" t="s">
         <v>1078</v>
       </c>
@@ -9508,7 +8891,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="541" ht="40.5" spans="1:2">
+    <row r="541" spans="1:2">
       <c r="A541" s="1" t="s">
         <v>1080</v>
       </c>
@@ -9516,7 +8899,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="542" ht="40.5" spans="1:2">
+    <row r="542" spans="1:2">
       <c r="A542" s="1" t="s">
         <v>1082</v>
       </c>
@@ -9524,7 +8907,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="543" ht="54" spans="1:2">
+    <row r="543" spans="1:2">
       <c r="A543" s="1" t="s">
         <v>1084</v>
       </c>
@@ -9532,7 +8915,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="544" ht="40.5" spans="1:2">
+    <row r="544" spans="1:2">
       <c r="A544" s="1" t="s">
         <v>1086</v>
       </c>
@@ -9540,7 +8923,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="545" ht="40.5" spans="1:2">
+    <row r="545" spans="1:2">
       <c r="A545" s="1" t="s">
         <v>1088</v>
       </c>
@@ -9548,7 +8931,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="546" ht="40.5" spans="1:2">
+    <row r="546" spans="1:2">
       <c r="A546" s="1" t="s">
         <v>1090</v>
       </c>
@@ -9556,7 +8939,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="547" ht="40.5" spans="1:2">
+    <row r="547" spans="1:2">
       <c r="A547" s="1" t="s">
         <v>1092</v>
       </c>
@@ -9564,7 +8947,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="548" ht="40.5" spans="1:2">
+    <row r="548" spans="1:2">
       <c r="A548" s="1" t="s">
         <v>1094</v>
       </c>
@@ -9572,7 +8955,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="549" ht="40.5" spans="1:2">
+    <row r="549" spans="1:2">
       <c r="A549" s="1" t="s">
         <v>1096</v>
       </c>
@@ -9580,7 +8963,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="550" ht="40.5" spans="1:2">
+    <row r="550" spans="1:2">
       <c r="A550" s="1" t="s">
         <v>1098</v>
       </c>
@@ -9588,7 +8971,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="551" ht="40.5" spans="1:2">
+    <row r="551" spans="1:2">
       <c r="A551" s="1" t="s">
         <v>1100</v>
       </c>
@@ -9596,7 +8979,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="552" ht="40.5" spans="1:2">
+    <row r="552" spans="1:2">
       <c r="A552" s="1" t="s">
         <v>1102</v>
       </c>
@@ -9604,7 +8987,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="553" ht="40.5" spans="1:2">
+    <row r="553" spans="1:2">
       <c r="A553" s="1" t="s">
         <v>1104</v>
       </c>
@@ -9612,7 +8995,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="554" ht="40.5" spans="1:2">
+    <row r="554" spans="1:2">
       <c r="A554" s="1" t="s">
         <v>1106</v>
       </c>
@@ -9620,7 +9003,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="555" ht="40.5" spans="1:2">
+    <row r="555" spans="1:2">
       <c r="A555" s="1" t="s">
         <v>1108</v>
       </c>
@@ -9628,7 +9011,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="556" ht="40.5" spans="1:2">
+    <row r="556" spans="1:2">
       <c r="A556" s="1" t="s">
         <v>1110</v>
       </c>
@@ -9636,7 +9019,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="557" ht="40.5" spans="1:2">
+    <row r="557" spans="1:2">
       <c r="A557" s="1" t="s">
         <v>1112</v>
       </c>
@@ -9644,7 +9027,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="558" ht="40.5" spans="1:2">
+    <row r="558" spans="1:2">
       <c r="A558" s="1" t="s">
         <v>1114</v>
       </c>
@@ -9652,7 +9035,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="559" ht="54" spans="1:2">
+    <row r="559" spans="1:2">
       <c r="A559" s="1" t="s">
         <v>1116</v>
       </c>
@@ -9660,7 +9043,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="560" ht="27" spans="1:2">
+    <row r="560" spans="1:2">
       <c r="A560" s="1" t="s">
         <v>1118</v>
       </c>
@@ -9668,7 +9051,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="561" ht="40.5" spans="1:2">
+    <row r="561" spans="1:2">
       <c r="A561" s="1" t="s">
         <v>1120</v>
       </c>
@@ -9676,7 +9059,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="562" ht="40.5" spans="1:2">
+    <row r="562" spans="1:2">
       <c r="A562" s="1" t="s">
         <v>1122</v>
       </c>
@@ -9684,7 +9067,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="563" ht="27" spans="1:2">
+    <row r="563" spans="1:2">
       <c r="A563" s="1" t="s">
         <v>1124</v>
       </c>
@@ -9692,7 +9075,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="564" ht="27" spans="1:2">
+    <row r="564" spans="1:2">
       <c r="A564" s="1" t="s">
         <v>1126</v>
       </c>
@@ -9700,7 +9083,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="565" ht="40.5" spans="1:2">
+    <row r="565" spans="1:2">
       <c r="A565" s="1" t="s">
         <v>1128</v>
       </c>
@@ -9708,7 +9091,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="566" ht="40.5" spans="1:2">
+    <row r="566" spans="1:2">
       <c r="A566" s="1" t="s">
         <v>1130</v>
       </c>
@@ -9716,7 +9099,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="567" ht="40.5" spans="1:2">
+    <row r="567" spans="1:2">
       <c r="A567" s="1" t="s">
         <v>1132</v>
       </c>
@@ -9724,7 +9107,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="568" ht="40.5" spans="1:2">
+    <row r="568" spans="1:2">
       <c r="A568" s="1" t="s">
         <v>1134</v>
       </c>
@@ -9732,7 +9115,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="569" ht="40.5" spans="1:2">
+    <row r="569" spans="1:2">
       <c r="A569" s="1" t="s">
         <v>1136</v>
       </c>
@@ -9740,7 +9123,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="570" ht="40.5" spans="1:2">
+    <row r="570" spans="1:2">
       <c r="A570" s="1" t="s">
         <v>1138</v>
       </c>
@@ -9748,7 +9131,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="571" ht="40.5" spans="1:2">
+    <row r="571" spans="1:2">
       <c r="A571" s="1" t="s">
         <v>1140</v>
       </c>
@@ -9756,7 +9139,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="572" ht="40.5" spans="1:2">
+    <row r="572" spans="1:2">
       <c r="A572" s="1" t="s">
         <v>1142</v>
       </c>
@@ -9764,7 +9147,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="573" ht="40.5" spans="1:2">
+    <row r="573" spans="1:2">
       <c r="A573" s="1" t="s">
         <v>1144</v>
       </c>
@@ -9772,7 +9155,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="574" ht="40.5" spans="1:2">
+    <row r="574" spans="1:2">
       <c r="A574" s="1" t="s">
         <v>1146</v>
       </c>
@@ -9780,7 +9163,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="575" ht="40.5" spans="1:2">
+    <row r="575" spans="1:2">
       <c r="A575" s="1" t="s">
         <v>1148</v>
       </c>
@@ -9788,7 +9171,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="576" ht="40.5" spans="1:2">
+    <row r="576" spans="1:2">
       <c r="A576" s="1" t="s">
         <v>1150</v>
       </c>
@@ -9796,7 +9179,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="577" ht="40.5" spans="1:2">
+    <row r="577" spans="1:2">
       <c r="A577" s="1" t="s">
         <v>1152</v>
       </c>
@@ -9804,7 +9187,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="578" ht="40.5" spans="1:2">
+    <row r="578" spans="1:2">
       <c r="A578" s="1" t="s">
         <v>1154</v>
       </c>
@@ -9812,7 +9195,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="579" ht="27" spans="1:2">
+    <row r="579" spans="1:2">
       <c r="A579" s="1" t="s">
         <v>1156</v>
       </c>
@@ -9820,7 +9203,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="580" ht="54" spans="1:2">
+    <row r="580" spans="1:2">
       <c r="A580" s="1" t="s">
         <v>1158</v>
       </c>
@@ -9828,7 +9211,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="581" ht="40.5" spans="1:2">
+    <row r="581" spans="1:2">
       <c r="A581" s="1" t="s">
         <v>1160</v>
       </c>
@@ -9836,7 +9219,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="582" ht="54" spans="1:2">
+    <row r="582" spans="1:2">
       <c r="A582" s="1" t="s">
         <v>1162</v>
       </c>
@@ -9844,7 +9227,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="583" ht="40.5" spans="1:2">
+    <row r="583" spans="1:2">
       <c r="A583" s="1" t="s">
         <v>1164</v>
       </c>
@@ -9852,7 +9235,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="584" ht="40.5" spans="1:2">
+    <row r="584" spans="1:2">
       <c r="A584" s="1" t="s">
         <v>1166</v>
       </c>
@@ -9860,7 +9243,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="585" ht="54" spans="1:2">
+    <row r="585" spans="1:2">
       <c r="A585" s="1" t="s">
         <v>1168</v>
       </c>
@@ -9868,7 +9251,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="586" ht="40.5" spans="1:2">
+    <row r="586" spans="1:2">
       <c r="A586" s="1" t="s">
         <v>1170</v>
       </c>
@@ -9876,7 +9259,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="587" ht="40.5" spans="1:2">
+    <row r="587" spans="1:2">
       <c r="A587" s="1" t="s">
         <v>1172</v>
       </c>
@@ -9884,7 +9267,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="588" ht="40.5" spans="1:2">
+    <row r="588" spans="1:2">
       <c r="A588" s="1" t="s">
         <v>1174</v>
       </c>
@@ -9892,7 +9275,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="589" ht="40.5" spans="1:2">
+    <row r="589" spans="1:2">
       <c r="A589" s="1" t="s">
         <v>1176</v>
       </c>
@@ -9900,7 +9283,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="590" ht="40.5" spans="1:2">
+    <row r="590" spans="1:2">
       <c r="A590" s="1" t="s">
         <v>1178</v>
       </c>
@@ -9908,7 +9291,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="591" ht="27" spans="1:2">
+    <row r="591" spans="1:2">
       <c r="A591" s="1" t="s">
         <v>1180</v>
       </c>
@@ -9916,7 +9299,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="592" ht="40.5" spans="1:2">
+    <row r="592" spans="1:2">
       <c r="A592" s="1" t="s">
         <v>1182</v>
       </c>
@@ -9924,7 +9307,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="593" ht="40.5" spans="1:2">
+    <row r="593" spans="1:2">
       <c r="A593" s="1" t="s">
         <v>1184</v>
       </c>
@@ -9932,7 +9315,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="594" ht="40.5" spans="1:2">
+    <row r="594" spans="1:2">
       <c r="A594" s="1" t="s">
         <v>1186</v>
       </c>
@@ -9940,7 +9323,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="595" ht="40.5" spans="1:2">
+    <row r="595" spans="1:2">
       <c r="A595" s="1" t="s">
         <v>1188</v>
       </c>
@@ -9948,7 +9331,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="596" ht="40.5" spans="1:2">
+    <row r="596" spans="1:2">
       <c r="A596" s="1" t="s">
         <v>1190</v>
       </c>
@@ -9956,7 +9339,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="597" ht="40.5" spans="1:2">
+    <row r="597" spans="1:2">
       <c r="A597" s="1" t="s">
         <v>1192</v>
       </c>
@@ -9964,7 +9347,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="598" ht="40.5" spans="1:2">
+    <row r="598" spans="1:2">
       <c r="A598" s="1" t="s">
         <v>1194</v>
       </c>
@@ -9972,7 +9355,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="599" ht="40.5" spans="1:2">
+    <row r="599" spans="1:2">
       <c r="A599" s="1" t="s">
         <v>1196</v>
       </c>
@@ -9980,7 +9363,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="600" ht="40.5" spans="1:2">
+    <row r="600" spans="1:2">
       <c r="A600" s="1" t="s">
         <v>1198</v>
       </c>
@@ -9988,7 +9371,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="601" ht="40.5" spans="1:2">
+    <row r="601" spans="1:2">
       <c r="A601" s="1" t="s">
         <v>1200</v>
       </c>
@@ -9996,7 +9379,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="602" ht="40.5" spans="1:2">
+    <row r="602" spans="1:2">
       <c r="A602" s="1" t="s">
         <v>1202</v>
       </c>
@@ -10004,7 +9387,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="603" ht="67.5" spans="1:2">
+    <row r="603" spans="1:2">
       <c r="A603" s="1" t="s">
         <v>1204</v>
       </c>
@@ -10012,7 +9395,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="604" ht="40.5" spans="1:2">
+    <row r="604" spans="1:2">
       <c r="A604" s="1" t="s">
         <v>1206</v>
       </c>
@@ -10020,7 +9403,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="605" ht="54" spans="1:2">
+    <row r="605" spans="1:2">
       <c r="A605" s="1" t="s">
         <v>1208</v>
       </c>
@@ -10028,7 +9411,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="606" ht="40.5" spans="1:2">
+    <row r="606" spans="1:2">
       <c r="A606" s="1" t="s">
         <v>1210</v>
       </c>
@@ -10036,7 +9419,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="607" ht="54" spans="1:2">
+    <row r="607" spans="1:2">
       <c r="A607" s="1" t="s">
         <v>1212</v>
       </c>
@@ -10044,7 +9427,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="608" ht="54" spans="1:2">
+    <row r="608" spans="1:2">
       <c r="A608" s="1" t="s">
         <v>1214</v>
       </c>
@@ -10052,7 +9435,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="609" ht="40.5" spans="1:2">
+    <row r="609" spans="1:2">
       <c r="A609" s="1" t="s">
         <v>1216</v>
       </c>
@@ -10060,7 +9443,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="610" ht="40.5" spans="1:2">
+    <row r="610" spans="1:2">
       <c r="A610" s="1" t="s">
         <v>1218</v>
       </c>
@@ -10068,7 +9451,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="611" ht="27" spans="1:2">
+    <row r="611" spans="1:2">
       <c r="A611" s="1" t="s">
         <v>1220</v>
       </c>
@@ -10076,7 +9459,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="612" ht="40.5" spans="1:2">
+    <row r="612" spans="1:2">
       <c r="A612" s="1" t="s">
         <v>1222</v>
       </c>
@@ -10084,7 +9467,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="613" ht="54" spans="1:2">
+    <row r="613" spans="1:2">
       <c r="A613" s="1" t="s">
         <v>1224</v>
       </c>
@@ -10092,7 +9475,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="614" ht="40.5" spans="1:2">
+    <row r="614" spans="1:2">
       <c r="A614" s="1" t="s">
         <v>1226</v>
       </c>
@@ -10100,7 +9483,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="615" ht="40.5" spans="1:2">
+    <row r="615" spans="1:2">
       <c r="A615" s="1" t="s">
         <v>1228</v>
       </c>
@@ -10108,7 +9491,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="616" ht="40.5" spans="1:2">
+    <row r="616" spans="1:2">
       <c r="A616" s="1" t="s">
         <v>1230</v>
       </c>
@@ -10116,7 +9499,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="617" ht="40.5" spans="1:2">
+    <row r="617" spans="1:2">
       <c r="A617" s="1" t="s">
         <v>1232</v>
       </c>
@@ -10124,7 +9507,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="618" ht="40.5" spans="1:2">
+    <row r="618" spans="1:2">
       <c r="A618" s="1" t="s">
         <v>1234</v>
       </c>
@@ -10132,7 +9515,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="619" ht="27" spans="1:2">
+    <row r="619" spans="1:2">
       <c r="A619" s="1" t="s">
         <v>1236</v>
       </c>
@@ -10140,7 +9523,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="620" ht="40.5" spans="1:2">
+    <row r="620" spans="1:2">
       <c r="A620" s="1" t="s">
         <v>1238</v>
       </c>
@@ -10148,7 +9531,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="621" ht="40.5" spans="1:2">
+    <row r="621" spans="1:2">
       <c r="A621" s="1" t="s">
         <v>1240</v>
       </c>
@@ -10156,7 +9539,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="622" ht="40.5" spans="1:2">
+    <row r="622" spans="1:2">
       <c r="A622" s="1" t="s">
         <v>1242</v>
       </c>
@@ -10164,7 +9547,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="623" ht="40.5" spans="1:2">
+    <row r="623" spans="1:2">
       <c r="A623" s="1" t="s">
         <v>1244</v>
       </c>
@@ -10173,376 +9556,376 @@
       </c>
     </row>
     <row r="624" spans="1:2">
-      <c r="A624" s="1"/>
-      <c r="B624" s="3"/>
-    </row>
-    <row r="625" ht="40.5" spans="1:2">
+      <c r="A624" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="625" spans="1:2">
       <c r="A625" s="1" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="626" ht="40.5" spans="1:2">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="626" spans="1:2">
       <c r="A626" s="1" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="627" ht="40.5" spans="1:2">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="627" spans="1:2">
       <c r="A627" s="1" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="628" ht="40.5" spans="1:2">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="628" spans="1:2">
       <c r="A628" s="1" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="629" ht="40.5" spans="1:2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="629" spans="1:2">
       <c r="A629" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="630" ht="40.5" spans="1:2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="630" spans="1:2">
       <c r="A630" s="1" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="631" ht="40.5" spans="1:2">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="631" spans="1:2">
       <c r="A631" s="1" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="632" ht="40.5" spans="1:2">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="632" spans="1:2">
       <c r="A632" s="1" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="633" ht="40.5" spans="1:2">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="633" spans="1:2">
       <c r="A633" s="1" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="634" ht="40.5" spans="1:2">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="634" spans="1:2">
       <c r="A634" s="1" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="635" ht="54" spans="1:2">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="635" spans="1:2">
       <c r="A635" s="1" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="636" ht="54" spans="1:2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="636" spans="1:2">
       <c r="A636" s="1" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="637" ht="40.5" spans="1:2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="637" spans="1:2">
       <c r="A637" s="1" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="638" ht="40.5" spans="1:2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="638" spans="1:2">
       <c r="A638" s="1" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="639" ht="40.5" spans="1:2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="639" spans="1:2">
       <c r="A639" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="640" ht="40.5" spans="1:2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="640" spans="1:2">
       <c r="A640" s="1" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="641" ht="40.5" spans="1:2">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2">
       <c r="A641" s="1" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="642" ht="54" spans="1:2">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="642" spans="1:2">
       <c r="A642" s="1" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="643" ht="40.5" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="643" spans="1:2">
       <c r="A643" s="1" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="644" ht="40.5" spans="1:2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="644" spans="1:2">
       <c r="A644" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="645" ht="40.5" spans="1:2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="645" spans="1:2">
       <c r="A645" s="1" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="646" ht="40.5" spans="1:2">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="646" spans="1:2">
       <c r="A646" s="1" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="647" ht="40.5" spans="1:2">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2">
       <c r="A647" s="1" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="648" ht="40.5" spans="1:2">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="648" spans="1:2">
       <c r="A648" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="649" ht="40.5" spans="1:2">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="649" spans="1:2">
       <c r="A649" s="1" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="650" ht="40.5" spans="1:2">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2">
       <c r="A650" s="1" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="651" ht="54" spans="1:2">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2">
       <c r="A651" s="1" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B651" s="3" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="652" ht="40.5" spans="1:2">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2">
       <c r="A652" s="1" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B652" s="3" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="653" ht="40.5" spans="1:2">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2">
       <c r="A653" s="1" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B653" s="3" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="654" ht="54" spans="1:2">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2">
       <c r="A654" s="1" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="B654" s="3" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="655" ht="40.5" spans="1:2">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2">
       <c r="A655" s="1" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="B655" s="3" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="656" ht="27" spans="1:2">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2">
       <c r="A656" s="1" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="B656" s="3" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="657" ht="40.5" spans="1:2">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="657" spans="1:2">
       <c r="A657" s="1" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="B657" s="3" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="658" ht="40.5" spans="1:2">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="658" spans="1:2">
       <c r="A658" s="1" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="B658" s="3" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="659" ht="40.5" spans="1:2">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="659" spans="1:2">
       <c r="A659" s="1" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="B659" s="3" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="660" ht="54" spans="1:2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="660" spans="1:2">
       <c r="A660" s="1" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="B660" s="3" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="661" ht="40.5" spans="1:2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="661" spans="1:2">
       <c r="A661" s="1" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B661" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="662" ht="40.5" spans="1:2">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="662" spans="1:2">
       <c r="A662" s="1" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="B662" s="3" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="663" ht="40.5" spans="1:2">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="663" spans="1:2">
       <c r="A663" s="1" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="B663" s="3" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="664" ht="40.5" spans="1:2">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="664" spans="1:2">
       <c r="A664" s="1" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B664" s="3" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="665" ht="27" spans="1:2">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="665" spans="1:2">
       <c r="A665" s="1" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="B665" s="3" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="666" ht="40.5" spans="1:2">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="666" spans="1:2">
       <c r="A666" s="1" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="B666" s="3" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="667" ht="54" spans="1:2">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="667" spans="1:2">
       <c r="A667" s="1" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="B667" s="3" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="668" ht="54" spans="1:2">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="668" spans="1:2">
       <c r="A668" s="1" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B668" s="3" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="669" ht="40.5" spans="1:2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="669" spans="1:2">
       <c r="A669" s="1" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="B669" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="670" ht="40.5" spans="1:2">
-      <c r="A670" s="1" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B670" s="3" t="s">
         <v>1111</v>
       </c>
+    </row>
+    <row r="670" spans="1:2">
+      <c r="A670" s="1"/>
+      <c r="B670" s="3"/>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" s="1"/>
@@ -10892,12 +10275,7 @@
       <c r="A757" s="1"/>
       <c r="B757" s="3"/>
     </row>
-    <row r="758" spans="1:2">
-      <c r="A758" s="1"/>
-      <c r="B758" s="3"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>